--- a/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_16_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1617765.340452774</v>
+        <v>1617052.737272895</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729599</v>
+        <v>340528.87297296</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>9.146429456440487</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096111</v>
+        <v>4.641001266096109</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -738,73 +738,73 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9.146429456440487</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>9.146429456440487</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>9.146429456440487</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9.146429456440487</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8.056175065232781</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,58 +823,58 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>9.146429456440487</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9.146429456440487</v>
+      </c>
+      <c r="U4" t="n">
         <v>8.056175065232781</v>
       </c>
-      <c r="F4" t="n">
+      <c r="V4" t="n">
         <v>9.146429456440487</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9.146429456440487</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9.146429456440487</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>9.146429456440481</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="F5" t="n">
         <v>9.146429456440487</v>
@@ -981,61 +981,61 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>9.146429456440487</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>9.146429456440487</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.056175065232781</v>
+      </c>
+      <c r="W6" t="n">
         <v>9.146429456440487</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>8.056175065232781</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8.056175065232781</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,61 +1066,61 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8.056175065232781</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>9.146429456440487</v>
       </c>
-      <c r="I7" t="n">
+      <c r="V7" t="n">
         <v>9.146429456440487</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9.146429456440487</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>9.146429456440487</v>
       </c>
       <c r="F8" t="n">
-        <v>9.146429456440487</v>
+        <v>9.146429456440481</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,55 +1230,55 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>9.146429456440487</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8.056175065232781</v>
-      </c>
-      <c r="U9" t="n">
-        <v>9.146429456440487</v>
-      </c>
-      <c r="V9" t="n">
-        <v>9.146429456440487</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.056175065232781</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.146429456440487</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.146429456440487</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>9.146429456440487</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>8.056175065232781</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>345.2760538139336</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>345.1804307259516</v>
       </c>
       <c r="D11" t="n">
         <v>339.5763765539591</v>
@@ -1385,7 +1385,7 @@
         <v>343.158820471969</v>
       </c>
       <c r="H11" t="n">
-        <v>240.4096078414087</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.5180595572516</v>
+        <v>58.51805955725163</v>
       </c>
       <c r="T11" t="n">
-        <v>54.06540456217241</v>
+        <v>156.3431150034023</v>
       </c>
       <c r="U11" t="n">
-        <v>193.5958314299567</v>
+        <v>193.5958314299568</v>
       </c>
       <c r="V11" t="n">
         <v>285.4962650629732</v>
       </c>
       <c r="W11" t="n">
-        <v>319.0797838022722</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>335.7940497988261</v>
       </c>
       <c r="Y11" t="n">
-        <v>336.0843922674799</v>
+        <v>112.3215929451536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1528,13 @@
         <v>124.979795276193</v>
       </c>
       <c r="C13" t="n">
-        <v>108.5395246599897</v>
+        <v>108.5395246599898</v>
       </c>
       <c r="D13" t="n">
-        <v>97.05678417640814</v>
+        <v>97.05678417640817</v>
       </c>
       <c r="E13" t="n">
-        <v>98.45879292645279</v>
+        <v>98.45879292645282</v>
       </c>
       <c r="F13" t="n">
         <v>102.1419005766037</v>
@@ -1543,10 +1543,10 @@
         <v>104.4482200576836</v>
       </c>
       <c r="H13" t="n">
-        <v>84.71897127076966</v>
+        <v>84.71897127076969</v>
       </c>
       <c r="I13" t="n">
-        <v>45.71622505185474</v>
+        <v>45.71622505185476</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.68361712586972</v>
+        <v>10.68361712586974</v>
       </c>
       <c r="S13" t="n">
         <v>118.6876127403486</v>
@@ -1585,10 +1585,10 @@
         <v>219.1116108498561</v>
       </c>
       <c r="V13" t="n">
-        <v>210.3039735559623</v>
+        <v>210.3039735559624</v>
       </c>
       <c r="W13" t="n">
-        <v>215.4360537923034</v>
+        <v>215.4360537923035</v>
       </c>
       <c r="X13" t="n">
         <v>175.1175094650025</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.5180595572516</v>
+        <v>58.51805955725163</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.2628043325971</v>
+        <v>193.5958314299568</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>313.7513651701211</v>
       </c>
       <c r="X14" t="n">
         <v>335.7940497988261</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.0843922674799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>124.979795276193</v>
       </c>
       <c r="C16" t="n">
-        <v>108.5395246599897</v>
+        <v>108.5395246599898</v>
       </c>
       <c r="D16" t="n">
-        <v>97.05678417640814</v>
+        <v>97.05678417640817</v>
       </c>
       <c r="E16" t="n">
-        <v>98.45879292645279</v>
+        <v>98.45879292645282</v>
       </c>
       <c r="F16" t="n">
         <v>102.1419005766037</v>
@@ -1780,10 +1780,10 @@
         <v>104.4482200576836</v>
       </c>
       <c r="H16" t="n">
-        <v>84.71897127076966</v>
+        <v>84.71897127076969</v>
       </c>
       <c r="I16" t="n">
-        <v>45.71622505185474</v>
+        <v>45.71622505185476</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.68361712586972</v>
+        <v>10.68361712586974</v>
       </c>
       <c r="S16" t="n">
         <v>118.6876127403486</v>
@@ -1822,10 +1822,10 @@
         <v>219.1116108498561</v>
       </c>
       <c r="V16" t="n">
-        <v>210.3039735559623</v>
+        <v>210.3039735559624</v>
       </c>
       <c r="W16" t="n">
-        <v>215.4360537923034</v>
+        <v>215.4360537923035</v>
       </c>
       <c r="X16" t="n">
         <v>175.1175094650025</v>
@@ -1844,13 +1844,13 @@
         <v>293.562461521453</v>
       </c>
       <c r="C17" t="n">
-        <v>293.4668384334709</v>
+        <v>293.466838433471</v>
       </c>
       <c r="D17" t="n">
-        <v>287.8627842614784</v>
+        <v>287.8627842614785</v>
       </c>
       <c r="E17" t="n">
-        <v>297.6403069818806</v>
+        <v>297.6403069818807</v>
       </c>
       <c r="F17" t="n">
         <v>304.2636015794577</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.804467264770935</v>
       </c>
       <c r="T17" t="n">
-        <v>104.6295227109215</v>
+        <v>104.6295227109216</v>
       </c>
       <c r="U17" t="n">
-        <v>89.42480753096979</v>
+        <v>141.8822391374761</v>
       </c>
       <c r="V17" t="n">
         <v>233.7826727704925</v>
       </c>
       <c r="W17" t="n">
-        <v>267.3661915097915</v>
+        <v>208.1042926385137</v>
       </c>
       <c r="X17" t="n">
         <v>284.0804575063454</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>73.26620298371235</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>56.82593236750905</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>45.34319188392747</v>
       </c>
       <c r="E19" t="n">
-        <v>46.7452006339721</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>50.42830828412303</v>
+        <v>50.42830828412305</v>
       </c>
       <c r="G19" t="n">
-        <v>52.7346277652029</v>
+        <v>52.73462776520292</v>
       </c>
       <c r="H19" t="n">
-        <v>33.00537897828897</v>
+        <v>33.00537897828898</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>106.5591391057657</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>71.52653117978065</v>
       </c>
       <c r="S19" t="n">
-        <v>66.97402044786787</v>
+        <v>66.97402044786789</v>
       </c>
       <c r="T19" t="n">
-        <v>123.3715277003531</v>
+        <v>235.9280340467447</v>
       </c>
       <c r="U19" t="n">
-        <v>167.3980185573754</v>
+        <v>279.954524903767</v>
       </c>
       <c r="V19" t="n">
-        <v>158.5903812634816</v>
+        <v>158.5903812634817</v>
       </c>
       <c r="W19" t="n">
-        <v>163.7224614998227</v>
+        <v>163.7224614998228</v>
       </c>
       <c r="X19" t="n">
-        <v>194.1612397954107</v>
+        <v>128.6320758562557</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>109.9318352787313</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.562461521453</v>
+        <v>234.3005626501752</v>
       </c>
       <c r="C20" t="n">
-        <v>293.4668384334709</v>
+        <v>293.466838433471</v>
       </c>
       <c r="D20" t="n">
-        <v>287.8627842614784</v>
+        <v>287.8627842614785</v>
       </c>
       <c r="E20" t="n">
-        <v>297.6403069818806</v>
+        <v>297.6403069818807</v>
       </c>
       <c r="F20" t="n">
         <v>304.2636015794577</v>
@@ -2096,7 +2096,7 @@
         <v>291.4452281794883</v>
       </c>
       <c r="H20" t="n">
-        <v>136.2385839424217</v>
+        <v>188.696015548928</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.804467264770935</v>
       </c>
       <c r="T20" t="n">
-        <v>104.6295227109215</v>
+        <v>104.6295227109216</v>
       </c>
       <c r="U20" t="n">
         <v>141.8822391374761</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.0235256066013</v>
+        <v>73.26620298371235</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>56.82593236750905</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>45.34319188392747</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>46.74520063397212</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>50.42830828412305</v>
       </c>
       <c r="G22" t="n">
-        <v>52.7346277652029</v>
+        <v>52.73462776520292</v>
       </c>
       <c r="H22" t="n">
-        <v>33.00537897828897</v>
+        <v>33.00537897828898</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>66.97402044786787</v>
+        <v>179.5305267942595</v>
       </c>
       <c r="T22" t="n">
-        <v>123.3715277003531</v>
+        <v>194.128850323242</v>
       </c>
       <c r="U22" t="n">
-        <v>167.3980185573754</v>
+        <v>279.954524903767</v>
       </c>
       <c r="V22" t="n">
-        <v>158.5903812634816</v>
+        <v>158.5903812634817</v>
       </c>
       <c r="W22" t="n">
-        <v>163.7224614998227</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>123.4039171725218</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.9318352787313</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>293.562461521453</v>
       </c>
       <c r="C23" t="n">
-        <v>293.4668384334709</v>
+        <v>293.466838433471</v>
       </c>
       <c r="D23" t="n">
-        <v>287.8627842614784</v>
+        <v>287.8627842614785</v>
       </c>
       <c r="E23" t="n">
-        <v>297.6403069818806</v>
+        <v>297.6403069818807</v>
       </c>
       <c r="F23" t="n">
         <v>304.2636015794577</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.804467264770921</v>
+        <v>6.804467264770935</v>
       </c>
       <c r="T23" t="n">
-        <v>104.6295227109215</v>
+        <v>104.6295227109216</v>
       </c>
       <c r="U23" t="n">
         <v>141.8822391374761</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.0235256066015</v>
+        <v>73.26620298371235</v>
       </c>
       <c r="C25" t="n">
-        <v>56.82593236750904</v>
+        <v>56.82593236750905</v>
       </c>
       <c r="D25" t="n">
-        <v>45.34319188392746</v>
+        <v>50.57135056766164</v>
       </c>
       <c r="E25" t="n">
-        <v>46.7452006339721</v>
+        <v>46.74520063397212</v>
       </c>
       <c r="F25" t="n">
-        <v>50.42830828412303</v>
+        <v>50.42830828412305</v>
       </c>
       <c r="G25" t="n">
-        <v>52.7346277652029</v>
+        <v>52.73462776520292</v>
       </c>
       <c r="H25" t="n">
-        <v>33.00537897828897</v>
+        <v>33.00537897828898</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>106.5591391057657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>71.52653117978065</v>
       </c>
       <c r="S25" t="n">
-        <v>66.97402044786787</v>
+        <v>66.97402044786789</v>
       </c>
       <c r="T25" t="n">
         <v>123.3715277003531</v>
       </c>
       <c r="U25" t="n">
-        <v>167.3980185573754</v>
+        <v>279.954524903767</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>158.5903812634817</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2542,7 +2542,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>109.9318352787313</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>249.5389296028389</v>
       </c>
       <c r="I26" t="n">
-        <v>9.129321761430226</v>
+        <v>9.129321761430234</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>66.73637518571095</v>
       </c>
       <c r="I27" t="n">
-        <v>8.764801949113146</v>
+        <v>8.764801949113147</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.81293888729996</v>
+        <v>19.81293888729997</v>
       </c>
       <c r="S28" t="n">
         <v>127.8169345017788</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>354.4053755753639</v>
+        <v>354.405375575364</v>
       </c>
       <c r="C29" t="n">
-        <v>354.3097524873818</v>
+        <v>354.309752487382</v>
       </c>
       <c r="D29" t="n">
-        <v>348.7056983153893</v>
+        <v>348.7056983153894</v>
       </c>
       <c r="E29" t="n">
-        <v>358.4832210357915</v>
+        <v>358.4832210357916</v>
       </c>
       <c r="F29" t="n">
-        <v>365.1065156333686</v>
+        <v>365.1065156333687</v>
       </c>
       <c r="G29" t="n">
-        <v>352.2881422333992</v>
+        <v>352.2881422333993</v>
       </c>
       <c r="H29" t="n">
-        <v>249.5389296028389</v>
+        <v>249.538929602839</v>
       </c>
       <c r="I29" t="n">
-        <v>9.12932176143023</v>
+        <v>9.129321761430305</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.64738131868185</v>
+        <v>67.64738131868194</v>
       </c>
       <c r="T29" t="n">
-        <v>165.4724367648325</v>
+        <v>165.4724367648326</v>
       </c>
       <c r="U29" t="n">
-        <v>202.725153191387</v>
+        <v>202.7251531913871</v>
       </c>
       <c r="V29" t="n">
-        <v>294.6255868244034</v>
+        <v>294.6255868244035</v>
       </c>
       <c r="W29" t="n">
         <v>328.2091055637025</v>
       </c>
       <c r="X29" t="n">
-        <v>344.9233715602563</v>
+        <v>344.9233715602564</v>
       </c>
       <c r="Y29" t="n">
-        <v>345.2137140289101</v>
+        <v>345.2137140289102</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>66.73637518571095</v>
       </c>
       <c r="I30" t="n">
-        <v>8.764801949113147</v>
+        <v>8.764801949113146</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>134.1091170376233</v>
       </c>
       <c r="C31" t="n">
-        <v>117.66884642142</v>
+        <v>117.6688464214201</v>
       </c>
       <c r="D31" t="n">
-        <v>106.1861059378384</v>
+        <v>106.1861059378385</v>
       </c>
       <c r="E31" t="n">
-        <v>107.588114687883</v>
+        <v>107.5881146878831</v>
       </c>
       <c r="F31" t="n">
-        <v>111.271222338034</v>
+        <v>111.2712223380341</v>
       </c>
       <c r="G31" t="n">
-        <v>113.5775418191138</v>
+        <v>113.5775418191139</v>
       </c>
       <c r="H31" t="n">
-        <v>93.8482930321999</v>
+        <v>93.84829303219999</v>
       </c>
       <c r="I31" t="n">
-        <v>54.84554681328498</v>
+        <v>54.84554681328338</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.81293888729997</v>
+        <v>19.81293888730004</v>
       </c>
       <c r="S31" t="n">
-        <v>127.8169345017788</v>
+        <v>127.8169345017789</v>
       </c>
       <c r="T31" t="n">
-        <v>184.214441754264</v>
+        <v>184.2144417542641</v>
       </c>
       <c r="U31" t="n">
         <v>228.2409326112864</v>
       </c>
       <c r="V31" t="n">
-        <v>219.4332953173926</v>
+        <v>219.4332953173927</v>
       </c>
       <c r="W31" t="n">
-        <v>224.5653755537337</v>
+        <v>224.5653755537338</v>
       </c>
       <c r="X31" t="n">
         <v>184.2468312264328</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.7747493326422</v>
+        <v>170.7747493326423</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>354.4053755753638</v>
+        <v>354.4053755753639</v>
       </c>
       <c r="C32" t="n">
-        <v>354.3097524873818</v>
+        <v>354.3097524873819</v>
       </c>
       <c r="D32" t="n">
-        <v>348.7056983153893</v>
+        <v>348.7056983153894</v>
       </c>
       <c r="E32" t="n">
-        <v>358.4832210357915</v>
+        <v>358.4832210357916</v>
       </c>
       <c r="F32" t="n">
         <v>365.1065156333686</v>
@@ -3047,7 +3047,7 @@
         <v>249.5389296028389</v>
       </c>
       <c r="I32" t="n">
-        <v>9.129321761430198</v>
+        <v>9.129321761430241</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64738131868182</v>
+        <v>67.64738131868187</v>
       </c>
       <c r="T32" t="n">
         <v>165.4724367648325</v>
@@ -3086,10 +3086,10 @@
         <v>202.725153191387</v>
       </c>
       <c r="V32" t="n">
-        <v>294.6255868244034</v>
+        <v>294.6255868244035</v>
       </c>
       <c r="W32" t="n">
-        <v>328.2091055637024</v>
+        <v>328.2091055637025</v>
       </c>
       <c r="X32" t="n">
         <v>344.9233715602563</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>134.1091170376232</v>
+        <v>134.1091170376233</v>
       </c>
       <c r="C34" t="n">
-        <v>117.6688464214199</v>
+        <v>117.66884642142</v>
       </c>
       <c r="D34" t="n">
         <v>106.1861059378384</v>
@@ -3196,16 +3196,16 @@
         <v>107.588114687883</v>
       </c>
       <c r="F34" t="n">
-        <v>111.2712223380339</v>
+        <v>111.271222338034</v>
       </c>
       <c r="G34" t="n">
         <v>113.5775418191138</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84829303219988</v>
+        <v>93.84829303219992</v>
       </c>
       <c r="I34" t="n">
-        <v>54.84554681328495</v>
+        <v>54.845546813285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.81293888729994</v>
+        <v>19.81293888729998</v>
       </c>
       <c r="S34" t="n">
         <v>127.8169345017788</v>
@@ -3241,19 +3241,19 @@
         <v>184.214441754264</v>
       </c>
       <c r="U34" t="n">
-        <v>228.2409326112863</v>
+        <v>228.2409326112864</v>
       </c>
       <c r="V34" t="n">
-        <v>219.4332953173925</v>
+        <v>219.4332953173926</v>
       </c>
       <c r="W34" t="n">
-        <v>224.5653755537336</v>
+        <v>224.5653755537337</v>
       </c>
       <c r="X34" t="n">
-        <v>184.2468312264327</v>
+        <v>184.2468312264328</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.7747493326422</v>
+        <v>170.7747493326423</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.5180595572516</v>
+        <v>58.51805955725163</v>
       </c>
       <c r="T35" t="n">
-        <v>156.3431150034022</v>
+        <v>156.3431150034023</v>
       </c>
       <c r="U35" t="n">
-        <v>193.5958314299567</v>
+        <v>193.5958314299568</v>
       </c>
       <c r="V35" t="n">
         <v>285.4962650629732</v>
@@ -3424,13 +3424,13 @@
         <v>124.979795276193</v>
       </c>
       <c r="C37" t="n">
-        <v>108.5395246599897</v>
+        <v>108.5395246599898</v>
       </c>
       <c r="D37" t="n">
-        <v>97.05678417640814</v>
+        <v>97.05678417640817</v>
       </c>
       <c r="E37" t="n">
-        <v>98.45879292645279</v>
+        <v>98.45879292645282</v>
       </c>
       <c r="F37" t="n">
         <v>102.1419005766037</v>
@@ -3439,10 +3439,10 @@
         <v>104.4482200576836</v>
       </c>
       <c r="H37" t="n">
-        <v>84.71897127076966</v>
+        <v>84.71897127076969</v>
       </c>
       <c r="I37" t="n">
-        <v>45.71622505185474</v>
+        <v>45.71622505185476</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.68361712586972</v>
+        <v>10.68361712586974</v>
       </c>
       <c r="S37" t="n">
         <v>118.6876127403486</v>
@@ -3481,10 +3481,10 @@
         <v>219.1116108498561</v>
       </c>
       <c r="V37" t="n">
-        <v>210.3039735559623</v>
+        <v>210.3039735559624</v>
       </c>
       <c r="W37" t="n">
-        <v>215.4360537923034</v>
+        <v>215.4360537923035</v>
       </c>
       <c r="X37" t="n">
         <v>175.1175094650025</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.5180595572516</v>
+        <v>58.51805955725163</v>
       </c>
       <c r="T38" t="n">
-        <v>156.3431150034022</v>
+        <v>156.3431150034023</v>
       </c>
       <c r="U38" t="n">
-        <v>193.5958314299567</v>
+        <v>193.5958314299568</v>
       </c>
       <c r="V38" t="n">
         <v>285.4962650629732</v>
@@ -3661,13 +3661,13 @@
         <v>124.979795276193</v>
       </c>
       <c r="C40" t="n">
-        <v>108.5395246599897</v>
+        <v>108.5395246599898</v>
       </c>
       <c r="D40" t="n">
-        <v>97.05678417640814</v>
+        <v>97.05678417640817</v>
       </c>
       <c r="E40" t="n">
-        <v>98.45879292645279</v>
+        <v>98.45879292645282</v>
       </c>
       <c r="F40" t="n">
         <v>102.1419005766037</v>
@@ -3676,10 +3676,10 @@
         <v>104.4482200576836</v>
       </c>
       <c r="H40" t="n">
-        <v>84.71897127076966</v>
+        <v>84.71897127076969</v>
       </c>
       <c r="I40" t="n">
-        <v>45.71622505185474</v>
+        <v>45.71622505185476</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.68361712586972</v>
+        <v>10.68361712586974</v>
       </c>
       <c r="S40" t="n">
         <v>118.6876127403486</v>
@@ -3718,10 +3718,10 @@
         <v>219.1116108498561</v>
       </c>
       <c r="V40" t="n">
-        <v>210.3039735559623</v>
+        <v>210.3039735559624</v>
       </c>
       <c r="W40" t="n">
-        <v>215.4360537923034</v>
+        <v>215.4360537923035</v>
       </c>
       <c r="X40" t="n">
         <v>175.1175094650025</v>
@@ -3916,7 +3916,7 @@
         <v>84.71897127076966</v>
       </c>
       <c r="I43" t="n">
-        <v>45.71622505185474</v>
+        <v>45.71622505185473</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.68361712586972</v>
+        <v>10.68361712586971</v>
       </c>
       <c r="S43" t="n">
         <v>118.6876127403486</v>
@@ -3977,25 +3977,25 @@
         <v>345.2760538139336</v>
       </c>
       <c r="C44" t="n">
-        <v>345.1804307259516</v>
+        <v>345.1804307259515</v>
       </c>
       <c r="D44" t="n">
-        <v>339.5763765539591</v>
+        <v>339.576376553959</v>
       </c>
       <c r="E44" t="n">
-        <v>349.3538992743613</v>
+        <v>349.3538992743612</v>
       </c>
       <c r="F44" t="n">
-        <v>355.9771938719384</v>
+        <v>355.9771938719383</v>
       </c>
       <c r="G44" t="n">
-        <v>343.158820471969</v>
+        <v>343.1588204719689</v>
       </c>
       <c r="H44" t="n">
-        <v>240.4096078414087</v>
+        <v>240.4096078414086</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.5180595572516</v>
+        <v>58.51805955725152</v>
       </c>
       <c r="T44" t="n">
-        <v>156.3431150034022</v>
+        <v>156.3431150034021</v>
       </c>
       <c r="U44" t="n">
         <v>193.5958314299567</v>
       </c>
       <c r="V44" t="n">
-        <v>285.4962650629732</v>
+        <v>285.4962650629731</v>
       </c>
       <c r="W44" t="n">
-        <v>319.0797838022722</v>
+        <v>319.0797838022721</v>
       </c>
       <c r="X44" t="n">
-        <v>335.7940497988261</v>
+        <v>335.794049798826</v>
       </c>
       <c r="Y44" t="n">
-        <v>336.0843922674799</v>
+        <v>336.0843922674798</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.979795276193</v>
+        <v>124.9797952761929</v>
       </c>
       <c r="C46" t="n">
-        <v>108.5395246599897</v>
+        <v>108.5395246599896</v>
       </c>
       <c r="D46" t="n">
-        <v>97.05678417640814</v>
+        <v>97.05678417640806</v>
       </c>
       <c r="E46" t="n">
-        <v>98.45879292645279</v>
+        <v>98.4587929264527</v>
       </c>
       <c r="F46" t="n">
-        <v>102.1419005766037</v>
+        <v>102.1419005766036</v>
       </c>
       <c r="G46" t="n">
-        <v>104.4482200576836</v>
+        <v>104.4482200576835</v>
       </c>
       <c r="H46" t="n">
-        <v>84.71897127076966</v>
+        <v>84.71897127076957</v>
       </c>
       <c r="I46" t="n">
-        <v>45.71622505185474</v>
+        <v>45.71622505185465</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.68361712586972</v>
+        <v>10.68361712586963</v>
       </c>
       <c r="S46" t="n">
-        <v>118.6876127403486</v>
+        <v>118.6876127403485</v>
       </c>
       <c r="T46" t="n">
-        <v>175.0851199928338</v>
+        <v>175.0851199928337</v>
       </c>
       <c r="U46" t="n">
-        <v>219.1116108498561</v>
+        <v>219.111610849856</v>
       </c>
       <c r="V46" t="n">
-        <v>210.3039735559623</v>
+        <v>210.3039735559622</v>
       </c>
       <c r="W46" t="n">
-        <v>215.4360537923034</v>
+        <v>215.4360537923033</v>
       </c>
       <c r="X46" t="n">
-        <v>175.1175094650025</v>
+        <v>175.1175094650024</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.645427571212</v>
+        <v>161.6454275712119</v>
       </c>
     </row>
   </sheetData>
@@ -4313,10 +4313,10 @@
         <v>23.89722968881533</v>
       </c>
       <c r="E2" t="n">
-        <v>14.65841205604716</v>
+        <v>14.65841205604715</v>
       </c>
       <c r="F2" t="n">
-        <v>5.419594423278987</v>
+        <v>5.419594423278985</v>
       </c>
       <c r="G2" t="n">
         <v>0.731714356515239</v>
@@ -4328,10 +4328,10 @@
         <v>0.731714356515239</v>
       </c>
       <c r="J2" t="n">
-        <v>9.420822340133698</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="K2" t="n">
-        <v>18.47578750200978</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="L2" t="n">
         <v>18.47578750200978</v>
@@ -4349,7 +4349,7 @@
         <v>27.53075266388586</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.53075266388586</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="R2" t="n">
         <v>36.58571782576195</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="C3" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="D3" t="n">
-        <v>18.10808256022561</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="E3" t="n">
-        <v>8.869264927457442</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="F3" t="n">
-        <v>0.731714356515239</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="G3" t="n">
         <v>0.731714356515239</v>
@@ -4410,22 +4410,22 @@
         <v>0.731714356515239</v>
       </c>
       <c r="K3" t="n">
-        <v>9.420822340133698</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="L3" t="n">
-        <v>18.47578750200978</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="M3" t="n">
-        <v>27.53075266388586</v>
+        <v>18.8416446802674</v>
       </c>
       <c r="N3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.89660984214348</v>
       </c>
       <c r="O3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.89660984214348</v>
       </c>
       <c r="P3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.89660984214348</v>
       </c>
       <c r="Q3" t="n">
         <v>36.58571782576195</v>
@@ -4434,25 +4434,25 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="V3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="C4" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="D4" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="E4" t="n">
-        <v>19.20934962205158</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="F4" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="G4" t="n">
         <v>0.731714356515239</v>
@@ -4489,49 +4489,49 @@
         <v>0.731714356515239</v>
       </c>
       <c r="K4" t="n">
-        <v>9.420822340133698</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="L4" t="n">
-        <v>9.420822340133698</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="M4" t="n">
-        <v>9.420822340133698</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="N4" t="n">
-        <v>9.420822340133698</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="O4" t="n">
-        <v>18.47578750200978</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P4" t="n">
-        <v>27.53075266388586</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q4" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="R4" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="S4" t="n">
         <v>27.34690019299378</v>
       </c>
       <c r="T4" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="U4" t="n">
-        <v>27.34690019299378</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="V4" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="W4" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="X4" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
     </row>
     <row r="5">
@@ -4565,25 +4565,25 @@
         <v>0.731714356515239</v>
       </c>
       <c r="J5" t="n">
-        <v>0.731714356515239</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="K5" t="n">
-        <v>0.731714356515239</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="L5" t="n">
-        <v>9.420822340133698</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="M5" t="n">
-        <v>18.47578750200978</v>
+        <v>18.8416446802674</v>
       </c>
       <c r="N5" t="n">
         <v>27.53075266388586</v>
       </c>
       <c r="O5" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="P5" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="Q5" t="n">
         <v>36.58571782576195</v>
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.44816725481974</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="C6" t="n">
-        <v>28.44816725481974</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="D6" t="n">
-        <v>28.44816725481974</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="E6" t="n">
-        <v>19.20934962205158</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="F6" t="n">
         <v>9.970531989283408</v>
       </c>
       <c r="G6" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="H6" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="I6" t="n">
         <v>0.731714356515239</v>
       </c>
       <c r="J6" t="n">
-        <v>0.731714356515239</v>
+        <v>9.420822340133698</v>
       </c>
       <c r="K6" t="n">
-        <v>9.420822340133698</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="L6" t="n">
-        <v>9.420822340133698</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="M6" t="n">
-        <v>9.420822340133698</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="N6" t="n">
-        <v>18.47578750200978</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="O6" t="n">
         <v>27.53075266388586</v>
       </c>
       <c r="P6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="R6" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="S6" t="n">
-        <v>28.44816725481974</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T6" t="n">
-        <v>28.44816725481974</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U6" t="n">
-        <v>28.44816725481974</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="V6" t="n">
-        <v>28.44816725481974</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="W6" t="n">
-        <v>28.44816725481974</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="X6" t="n">
-        <v>28.44816725481974</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.44816725481974</v>
+        <v>9.970531989283408</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.34690019299378</v>
+        <v>8.869264927457442</v>
       </c>
       <c r="C7" t="n">
-        <v>27.34690019299378</v>
+        <v>8.869264927457442</v>
       </c>
       <c r="D7" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="E7" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="F7" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="G7" t="n">
-        <v>19.20934962205158</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="H7" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="I7" t="n">
         <v>0.731714356515239</v>
       </c>
       <c r="J7" t="n">
-        <v>9.420822340133698</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="K7" t="n">
-        <v>9.420822340133698</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="L7" t="n">
-        <v>9.420822340133698</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="M7" t="n">
-        <v>9.420822340133698</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="N7" t="n">
-        <v>18.47578750200978</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="O7" t="n">
-        <v>27.53075266388586</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P7" t="n">
-        <v>27.53075266388586</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q7" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="R7" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="S7" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T7" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U7" t="n">
         <v>27.34690019299378</v>
       </c>
       <c r="V7" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="W7" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="X7" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.34690019299378</v>
+        <v>8.869264927457442</v>
       </c>
     </row>
     <row r="8">
@@ -4787,7 +4787,7 @@
         <v>23.89722968881533</v>
       </c>
       <c r="E8" t="n">
-        <v>14.65841205604716</v>
+        <v>14.65841205604715</v>
       </c>
       <c r="F8" t="n">
         <v>5.419594423278988</v>
@@ -4802,28 +4802,28 @@
         <v>0.731714356515239</v>
       </c>
       <c r="J8" t="n">
-        <v>9.420822340133698</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="K8" t="n">
-        <v>9.420822340133698</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="L8" t="n">
-        <v>18.47578750200978</v>
+        <v>9.78667951839132</v>
       </c>
       <c r="M8" t="n">
-        <v>27.53075266388586</v>
+        <v>18.8416446802674</v>
       </c>
       <c r="N8" t="n">
-        <v>36.58571782576195</v>
+        <v>27.89660984214348</v>
       </c>
       <c r="O8" t="n">
-        <v>36.58571782576195</v>
+        <v>27.89660984214348</v>
       </c>
       <c r="P8" t="n">
-        <v>36.58571782576195</v>
+        <v>27.89660984214348</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.58571782576195</v>
+        <v>27.89660984214348</v>
       </c>
       <c r="R8" t="n">
         <v>36.58571782576195</v>
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.970531989283408</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="C9" t="n">
-        <v>9.970531989283408</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="D9" t="n">
         <v>9.970531989283408</v>
       </c>
       <c r="E9" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="F9" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="G9" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="H9" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="I9" t="n">
         <v>0.731714356515239</v>
       </c>
       <c r="J9" t="n">
+        <v>0.731714356515239</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.731714356515239</v>
+      </c>
+      <c r="L9" t="n">
         <v>9.420822340133698</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>18.47578750200978</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
+        <v>18.47578750200978</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18.47578750200978</v>
+      </c>
+      <c r="P9" t="n">
         <v>27.53075266388586</v>
       </c>
-      <c r="M9" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="N9" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="O9" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="P9" t="n">
-        <v>36.58571782576195</v>
-      </c>
       <c r="Q9" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="R9" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="S9" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T9" t="n">
-        <v>28.44816725481974</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U9" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="V9" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="W9" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="X9" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="Y9" t="n">
         <v>19.20934962205158</v>
-      </c>
-      <c r="V9" t="n">
-        <v>9.970531989283408</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9.970531989283408</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.970531989283408</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.970531989283408</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="C10" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="D10" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="E10" t="n">
-        <v>19.20934962205158</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="F10" t="n">
-        <v>9.970531989283408</v>
+        <v>0.731714356515239</v>
       </c>
       <c r="G10" t="n">
         <v>0.731714356515239</v>
@@ -4960,25 +4960,25 @@
         <v>0.731714356515239</v>
       </c>
       <c r="J10" t="n">
-        <v>9.78667951839132</v>
+        <v>9.420822340133698</v>
       </c>
       <c r="K10" t="n">
-        <v>18.8416446802674</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="L10" t="n">
-        <v>27.89660984214348</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="M10" t="n">
-        <v>36.58571782576195</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="N10" t="n">
-        <v>36.58571782576195</v>
+        <v>18.47578750200978</v>
       </c>
       <c r="O10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="P10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388586</v>
       </c>
       <c r="Q10" t="n">
         <v>36.58571782576195</v>
@@ -4987,25 +4987,25 @@
         <v>27.34690019299378</v>
       </c>
       <c r="S10" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="T10" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="U10" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="V10" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="W10" t="n">
-        <v>27.34690019299378</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="X10" t="n">
-        <v>27.34690019299378</v>
+        <v>9.970531989283408</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.34690019299378</v>
+        <v>0.731714356515239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.31541313498</v>
+        <v>1817.144527159772</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.31541313498</v>
+        <v>1468.477425416386</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.308972171385</v>
+        <v>1125.470984452791</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.426245631626</v>
+        <v>772.5882579130321</v>
       </c>
       <c r="F11" t="n">
-        <v>655.8533225286583</v>
+        <v>413.015334810063</v>
       </c>
       <c r="G11" t="n">
-        <v>309.2282513448506</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="H11" t="n">
         <v>66.39026362625597</v>
@@ -5042,49 +5042,49 @@
         <v>374.2901309315142</v>
       </c>
       <c r="K11" t="n">
-        <v>992.9535873802777</v>
+        <v>374.2901309315142</v>
       </c>
       <c r="L11" t="n">
-        <v>1439.557711811682</v>
+        <v>1186.75380598936</v>
       </c>
       <c r="M11" t="n">
-        <v>1458.327539137222</v>
+        <v>1205.5236333149</v>
       </c>
       <c r="N11" t="n">
-        <v>1479.269674285567</v>
+        <v>1479.269674285568</v>
       </c>
       <c r="O11" t="n">
-        <v>2229.532692138525</v>
+        <v>2229.532692138526</v>
       </c>
       <c r="P11" t="n">
-        <v>2849.697472820932</v>
+        <v>2849.697472820933</v>
       </c>
       <c r="Q11" t="n">
         <v>3239.201759646826</v>
       </c>
       <c r="R11" t="n">
-        <v>3319.513181312798</v>
+        <v>3319.513181312799</v>
       </c>
       <c r="S11" t="n">
-        <v>3260.404030244867</v>
+        <v>3260.404030244868</v>
       </c>
       <c r="T11" t="n">
-        <v>3205.792510485097</v>
+        <v>3102.481691857593</v>
       </c>
       <c r="U11" t="n">
-        <v>3010.241165606353</v>
+        <v>2906.930346978849</v>
       </c>
       <c r="V11" t="n">
-        <v>2721.861099886178</v>
+        <v>2618.550281258674</v>
       </c>
       <c r="W11" t="n">
-        <v>2399.558287964691</v>
+        <v>2618.550281258674</v>
       </c>
       <c r="X11" t="n">
-        <v>2399.558287964691</v>
+        <v>2279.364372370971</v>
       </c>
       <c r="Y11" t="n">
-        <v>2060.079103856126</v>
+        <v>2165.908217880917</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>66.39026362625597</v>
       </c>
       <c r="J12" t="n">
-        <v>291.1950473692563</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="K12" t="n">
-        <v>801.6806010758332</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="L12" t="n">
-        <v>1536.291836249338</v>
+        <v>84.35994830773166</v>
       </c>
       <c r="M12" t="n">
-        <v>1565.101142307118</v>
+        <v>905.9394606826493</v>
       </c>
       <c r="N12" t="n">
-        <v>1600.50844616236</v>
+        <v>1046.641874880714</v>
       </c>
       <c r="O12" t="n">
-        <v>1623.900194756147</v>
+        <v>1070.033623474501</v>
       </c>
       <c r="P12" t="n">
-        <v>2038.885785948279</v>
+        <v>1696.400603286777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2038.885785948279</v>
+        <v>2089.469292452141</v>
       </c>
       <c r="R12" t="n">
         <v>2089.469292452141</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.9462421310665</v>
+        <v>713.9462421310666</v>
       </c>
       <c r="C13" t="n">
-        <v>604.3103586361274</v>
+        <v>604.3103586361275</v>
       </c>
       <c r="D13" t="n">
-        <v>506.2732029023817</v>
+        <v>506.2732029023819</v>
       </c>
       <c r="E13" t="n">
-        <v>406.8198767140456</v>
+        <v>406.8198767140457</v>
       </c>
       <c r="F13" t="n">
-        <v>303.6462397679812</v>
+        <v>303.6462397679813</v>
       </c>
       <c r="G13" t="n">
         <v>198.1429871844625</v>
@@ -5200,22 +5200,22 @@
         <v>160.7780043216978</v>
       </c>
       <c r="K13" t="n">
-        <v>408.5471530118613</v>
+        <v>369.4017852773241</v>
       </c>
       <c r="L13" t="n">
-        <v>770.8847729342586</v>
+        <v>731.7394051997214</v>
       </c>
       <c r="M13" t="n">
-        <v>1164.883660187081</v>
+        <v>1065.503807539172</v>
       </c>
       <c r="N13" t="n">
-        <v>1510.253786896809</v>
+        <v>1450.019301983437</v>
       </c>
       <c r="O13" t="n">
-        <v>1809.940325312188</v>
+        <v>1749.705840398816</v>
       </c>
       <c r="P13" t="n">
-        <v>2049.95042901014</v>
+        <v>1989.715944096768</v>
       </c>
       <c r="Q13" t="n">
         <v>2139.250000080139</v>
@@ -5239,10 +5239,10 @@
         <v>1180.35304244663</v>
       </c>
       <c r="X13" t="n">
-        <v>1003.466669249657</v>
+        <v>1003.466669249658</v>
       </c>
       <c r="Y13" t="n">
-        <v>840.1884595817664</v>
+        <v>840.1884595817667</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2059.982514878365</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.31541313498</v>
+        <v>1711.315413134979</v>
       </c>
       <c r="D14" t="n">
-        <v>1368.308972171385</v>
+        <v>1368.308972171384</v>
       </c>
       <c r="E14" t="n">
         <v>1015.426245631626</v>
@@ -5282,25 +5282,25 @@
         <v>992.9535873802777</v>
       </c>
       <c r="L14" t="n">
-        <v>998.2953185436691</v>
+        <v>1805.417262438124</v>
       </c>
       <c r="M14" t="n">
-        <v>1458.327539137222</v>
+        <v>2626.996774813041</v>
       </c>
       <c r="N14" t="n">
-        <v>1479.269674285567</v>
+        <v>2684.974117064064</v>
       </c>
       <c r="O14" t="n">
-        <v>2229.532692138525</v>
+        <v>2699.348400630392</v>
       </c>
       <c r="P14" t="n">
-        <v>2849.697472820932</v>
+        <v>3319.513181312799</v>
       </c>
       <c r="Q14" t="n">
-        <v>3239.201759646826</v>
+        <v>3319.513181312799</v>
       </c>
       <c r="R14" t="n">
-        <v>3319.513181312798</v>
+        <v>3319.513181312799</v>
       </c>
       <c r="S14" t="n">
         <v>3260.404030244867</v>
@@ -5309,16 +5309,16 @@
         <v>3260.404030244867</v>
       </c>
       <c r="U14" t="n">
-        <v>3087.411298595779</v>
+        <v>3064.852685366123</v>
       </c>
       <c r="V14" t="n">
-        <v>3087.411298595779</v>
+        <v>3064.852685366123</v>
       </c>
       <c r="W14" t="n">
-        <v>3087.411298595779</v>
+        <v>2747.932114487213</v>
       </c>
       <c r="X14" t="n">
-        <v>2748.225389708076</v>
+        <v>2408.74620559951</v>
       </c>
       <c r="Y14" t="n">
         <v>2408.74620559951</v>
@@ -5355,22 +5355,22 @@
         <v>66.39026362625597</v>
       </c>
       <c r="J15" t="n">
-        <v>291.1950473692563</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="K15" t="n">
-        <v>801.6806010758332</v>
+        <v>576.8758173328329</v>
       </c>
       <c r="L15" t="n">
-        <v>1536.291836249338</v>
+        <v>1311.487052506337</v>
       </c>
       <c r="M15" t="n">
-        <v>1565.101142307118</v>
+        <v>1340.296358564118</v>
       </c>
       <c r="N15" t="n">
-        <v>1600.50844616236</v>
+        <v>1375.70366241936</v>
       </c>
       <c r="O15" t="n">
-        <v>1623.900194756147</v>
+        <v>1399.095411013147</v>
       </c>
       <c r="P15" t="n">
         <v>1645.817096782916</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.9462421310665</v>
+        <v>713.9462421310666</v>
       </c>
       <c r="C16" t="n">
-        <v>604.3103586361274</v>
+        <v>604.3103586361275</v>
       </c>
       <c r="D16" t="n">
-        <v>506.2732029023817</v>
+        <v>506.2732029023819</v>
       </c>
       <c r="E16" t="n">
-        <v>406.8198767140456</v>
+        <v>406.8198767140457</v>
       </c>
       <c r="F16" t="n">
-        <v>303.6462397679812</v>
+        <v>303.6462397679813</v>
       </c>
       <c r="G16" t="n">
         <v>198.1429871844625</v>
@@ -5440,16 +5440,16 @@
         <v>408.5471530118613</v>
       </c>
       <c r="L16" t="n">
-        <v>770.8847729342586</v>
+        <v>710.6502880208868</v>
       </c>
       <c r="M16" t="n">
-        <v>1164.883660187081</v>
+        <v>1065.503807539172</v>
       </c>
       <c r="N16" t="n">
-        <v>1510.253786896809</v>
+        <v>1450.019301983437</v>
       </c>
       <c r="O16" t="n">
-        <v>1809.940325312188</v>
+        <v>1749.705840398816</v>
       </c>
       <c r="P16" t="n">
         <v>2049.95042901014</v>
@@ -5476,10 +5476,10 @@
         <v>1180.35304244663</v>
       </c>
       <c r="X16" t="n">
-        <v>1003.466669249657</v>
+        <v>1003.466669249658</v>
       </c>
       <c r="Y16" t="n">
-        <v>840.1884595817664</v>
+        <v>840.1884595817667</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1746.566804014846</v>
+        <v>1746.566804014847</v>
       </c>
       <c r="C17" t="n">
-        <v>1450.135654082047</v>
+        <v>1450.135654082048</v>
       </c>
       <c r="D17" t="n">
         <v>1159.365164929039</v>
       </c>
       <c r="E17" t="n">
-        <v>858.7183901998663</v>
+        <v>858.7183901998667</v>
       </c>
       <c r="F17" t="n">
-        <v>551.3814189074849</v>
+        <v>551.3814189074851</v>
       </c>
       <c r="G17" t="n">
-        <v>256.992299534264</v>
+        <v>256.9922995342641</v>
       </c>
       <c r="H17" t="n">
         <v>66.39026362625597</v>
@@ -5513,46 +5513,46 @@
         <v>66.39026362625597</v>
       </c>
       <c r="J17" t="n">
-        <v>88.74200197104551</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="K17" t="n">
-        <v>707.405458419809</v>
+        <v>685.0537200750194</v>
       </c>
       <c r="L17" t="n">
-        <v>1519.869133477655</v>
+        <v>1497.517395132865</v>
       </c>
       <c r="M17" t="n">
-        <v>1538.638960803195</v>
+        <v>1516.287222458405</v>
       </c>
       <c r="N17" t="n">
-        <v>1559.58109595154</v>
+        <v>1868.773961111461</v>
       </c>
       <c r="O17" t="n">
-        <v>2309.844113804498</v>
+        <v>2619.036978964419</v>
       </c>
       <c r="P17" t="n">
-        <v>2930.008894486905</v>
+        <v>3239.201759646826</v>
       </c>
       <c r="Q17" t="n">
-        <v>3319.513181312798</v>
+        <v>3239.201759646826</v>
       </c>
       <c r="R17" t="n">
-        <v>3319.513181312798</v>
+        <v>3319.513181312799</v>
       </c>
       <c r="S17" t="n">
-        <v>3319.513181312798</v>
+        <v>3312.639982055454</v>
       </c>
       <c r="T17" t="n">
-        <v>3213.82679473611</v>
+        <v>3206.953595478766</v>
       </c>
       <c r="U17" t="n">
-        <v>3123.498706320989</v>
+        <v>3063.638202410608</v>
       </c>
       <c r="V17" t="n">
-        <v>2887.354592411401</v>
+        <v>2827.49408850102</v>
       </c>
       <c r="W17" t="n">
-        <v>2617.2877323005</v>
+        <v>2617.287732300501</v>
       </c>
       <c r="X17" t="n">
         <v>2330.337775223384</v>
@@ -5592,28 +5592,28 @@
         <v>66.39026362625597</v>
       </c>
       <c r="J18" t="n">
-        <v>291.1950473692563</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="K18" t="n">
-        <v>801.6806010758332</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="L18" t="n">
-        <v>819.6502857573089</v>
+        <v>801.0014987997605</v>
       </c>
       <c r="M18" t="n">
-        <v>848.4595918150893</v>
+        <v>1622.581011174678</v>
       </c>
       <c r="N18" t="n">
-        <v>883.8668956703312</v>
+        <v>1657.98831502992</v>
       </c>
       <c r="O18" t="n">
-        <v>1019.450116970639</v>
+        <v>1685.456554615807</v>
       </c>
       <c r="P18" t="n">
-        <v>1645.817096782916</v>
+        <v>1696.400603286777</v>
       </c>
       <c r="Q18" t="n">
-        <v>2038.885785948279</v>
+        <v>2089.469292452141</v>
       </c>
       <c r="R18" t="n">
         <v>2089.469292452141</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>581.7394076725254</v>
+        <v>575.6814609648226</v>
       </c>
       <c r="C19" t="n">
-        <v>410.6460352342419</v>
+        <v>518.28152928047</v>
       </c>
       <c r="D19" t="n">
-        <v>251.151390557152</v>
+        <v>472.4803253573108</v>
       </c>
       <c r="E19" t="n">
-        <v>203.9340161794024</v>
+        <v>311.5695102256303</v>
       </c>
       <c r="F19" t="n">
-        <v>152.9963310439246</v>
+        <v>260.6318250901525</v>
       </c>
       <c r="G19" t="n">
-        <v>99.72903027099231</v>
+        <v>207.3645243172203</v>
       </c>
       <c r="H19" t="n">
-        <v>66.39026362625597</v>
+        <v>174.0257576724839</v>
       </c>
       <c r="I19" t="n">
         <v>66.39026362625597</v>
@@ -5695,28 +5695,28 @@
         <v>1877.222943247817</v>
       </c>
       <c r="R19" t="n">
-        <v>1877.222943247817</v>
+        <v>1804.973921854099</v>
       </c>
       <c r="S19" t="n">
-        <v>1809.5724175429</v>
+        <v>1737.323396149182</v>
       </c>
       <c r="T19" t="n">
-        <v>1684.954712795068</v>
+        <v>1499.012250647419</v>
       </c>
       <c r="U19" t="n">
-        <v>1515.865805161356</v>
+        <v>1216.229902259776</v>
       </c>
       <c r="V19" t="n">
-        <v>1355.673500854809</v>
+        <v>1056.037597953229</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.297277117614</v>
+        <v>890.6613742160341</v>
       </c>
       <c r="X19" t="n">
-        <v>994.1748126778051</v>
+        <v>760.7299844622405</v>
       </c>
       <c r="Y19" t="n">
-        <v>769.4391140665698</v>
+        <v>649.6877266049361</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1693.579499361809</v>
+        <v>1746.566804014846</v>
       </c>
       <c r="C20" t="n">
-        <v>1397.14834942901</v>
+        <v>1450.135654082047</v>
       </c>
       <c r="D20" t="n">
-        <v>1106.377860276001</v>
+        <v>1159.365164929038</v>
       </c>
       <c r="E20" t="n">
-        <v>805.7310855468289</v>
+        <v>858.718390199866</v>
       </c>
       <c r="F20" t="n">
-        <v>498.3941142544475</v>
+        <v>551.3814189074844</v>
       </c>
       <c r="G20" t="n">
-        <v>204.0049948812274</v>
+        <v>256.9922995342641</v>
       </c>
       <c r="H20" t="n">
         <v>66.39026362625597</v>
@@ -5750,52 +5750,52 @@
         <v>66.39026362625597</v>
       </c>
       <c r="J20" t="n">
-        <v>374.2901309315142</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="K20" t="n">
-        <v>992.9535873802777</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="L20" t="n">
-        <v>998.2953185436691</v>
+        <v>71.7319947896474</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.065145869209</v>
+        <v>893.311507164565</v>
       </c>
       <c r="N20" t="n">
-        <v>1479.269674285567</v>
+        <v>1714.891019539483</v>
       </c>
       <c r="O20" t="n">
-        <v>2229.532692138525</v>
+        <v>2465.154037392441</v>
       </c>
       <c r="P20" t="n">
-        <v>2849.697472820932</v>
+        <v>3085.318818074848</v>
       </c>
       <c r="Q20" t="n">
-        <v>3239.201759646826</v>
+        <v>3319.513181312799</v>
       </c>
       <c r="R20" t="n">
-        <v>3319.513181312798</v>
+        <v>3319.513181312799</v>
       </c>
       <c r="S20" t="n">
-        <v>3319.513181312798</v>
+        <v>3312.639982055454</v>
       </c>
       <c r="T20" t="n">
-        <v>3213.82679473611</v>
+        <v>3206.953595478766</v>
       </c>
       <c r="U20" t="n">
-        <v>3070.511401667952</v>
+        <v>3063.638202410608</v>
       </c>
       <c r="V20" t="n">
-        <v>2834.367287758364</v>
+        <v>2827.49408850102</v>
       </c>
       <c r="W20" t="n">
-        <v>2564.300427647463</v>
+        <v>2557.427228390119</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.350470570346</v>
+        <v>2270.477271313002</v>
       </c>
       <c r="Y20" t="n">
-        <v>1990.107238272367</v>
+        <v>1983.234039015023</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>66.39026362625597</v>
       </c>
       <c r="J21" t="n">
-        <v>291.1950473692563</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="K21" t="n">
-        <v>801.6806010758332</v>
+        <v>66.39026362625597</v>
       </c>
       <c r="L21" t="n">
-        <v>819.6502857573089</v>
+        <v>801.0014987997605</v>
       </c>
       <c r="M21" t="n">
-        <v>848.4595918150893</v>
+        <v>1622.581011174678</v>
       </c>
       <c r="N21" t="n">
-        <v>1611.481299518158</v>
+        <v>2055.133495187383</v>
       </c>
       <c r="O21" t="n">
-        <v>1634.873048111945</v>
+        <v>2078.52524378117</v>
       </c>
       <c r="P21" t="n">
-        <v>1645.817096782916</v>
+        <v>2089.469292452141</v>
       </c>
       <c r="Q21" t="n">
-        <v>2038.885785948279</v>
+        <v>2089.469292452141</v>
       </c>
       <c r="R21" t="n">
         <v>2089.469292452141</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.1262891803873</v>
+        <v>354.3525261646636</v>
       </c>
       <c r="C22" t="n">
-        <v>638.0329167421038</v>
+        <v>296.9525944803111</v>
       </c>
       <c r="D22" t="n">
-        <v>478.5382720650138</v>
+        <v>251.151390557152</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6274569333333</v>
+        <v>203.9340161794024</v>
       </c>
       <c r="F22" t="n">
         <v>152.9963310439246</v>
       </c>
       <c r="G22" t="n">
-        <v>99.72903027099231</v>
+        <v>99.72903027099233</v>
       </c>
       <c r="H22" t="n">
         <v>66.39026362625597</v>
@@ -5935,25 +5935,25 @@
         <v>1877.222943247817</v>
       </c>
       <c r="S22" t="n">
-        <v>1809.5724175429</v>
+        <v>1695.878976788969</v>
       </c>
       <c r="T22" t="n">
-        <v>1684.954712795068</v>
+        <v>1499.789228987714</v>
       </c>
       <c r="U22" t="n">
-        <v>1515.865805161356</v>
+        <v>1217.006880600071</v>
       </c>
       <c r="V22" t="n">
-        <v>1355.673500854809</v>
+        <v>1056.814576293524</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.297277117614</v>
+        <v>777.7449118023981</v>
       </c>
       <c r="X22" t="n">
-        <v>1065.646855731228</v>
+        <v>653.0944904160124</v>
       </c>
       <c r="Y22" t="n">
-        <v>954.6045978739239</v>
+        <v>428.3587918047771</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1747.788446951793</v>
+        <v>1747.788446951792</v>
       </c>
       <c r="C23" t="n">
-        <v>1451.357297018994</v>
+        <v>1451.357297018993</v>
       </c>
       <c r="D23" t="n">
         <v>1160.586807865985</v>
       </c>
       <c r="E23" t="n">
-        <v>859.9400331368129</v>
+        <v>859.9400331368122</v>
       </c>
       <c r="F23" t="n">
-        <v>552.6030618444311</v>
+        <v>552.6030618444306</v>
       </c>
       <c r="G23" t="n">
-        <v>258.2139424712106</v>
+        <v>258.2139424712107</v>
       </c>
       <c r="H23" t="n">
         <v>67.61190656320252</v>
@@ -5987,16 +5987,16 @@
         <v>67.61190656320252</v>
       </c>
       <c r="J23" t="n">
-        <v>375.5117738684608</v>
+        <v>67.61190656320252</v>
       </c>
       <c r="K23" t="n">
-        <v>994.1752303172243</v>
+        <v>67.61190656320252</v>
       </c>
       <c r="L23" t="n">
-        <v>999.5169614806157</v>
+        <v>880.0755816210483</v>
       </c>
       <c r="M23" t="n">
-        <v>1439.543211699894</v>
+        <v>1716.772925340679</v>
       </c>
       <c r="N23" t="n">
         <v>2276.240555419525</v>
@@ -6017,19 +6017,19 @@
         <v>3373.722128902781</v>
       </c>
       <c r="T23" t="n">
-        <v>3268.035742326093</v>
+        <v>3268.035742326092</v>
       </c>
       <c r="U23" t="n">
-        <v>3124.720349257936</v>
+        <v>3124.720349257935</v>
       </c>
       <c r="V23" t="n">
         <v>2888.576235348347</v>
       </c>
       <c r="W23" t="n">
-        <v>2618.509375237447</v>
+        <v>2618.509375237446</v>
       </c>
       <c r="X23" t="n">
-        <v>2331.559418160331</v>
+        <v>2331.55941816033</v>
       </c>
       <c r="Y23" t="n">
         <v>2044.316185862351</v>
@@ -6069,22 +6069,22 @@
         <v>292.4166903062028</v>
       </c>
       <c r="K24" t="n">
-        <v>802.9022440127798</v>
+        <v>292.4166903062028</v>
       </c>
       <c r="L24" t="n">
-        <v>820.8719286942554</v>
+        <v>310.3863749876785</v>
       </c>
       <c r="M24" t="n">
-        <v>849.6812347520358</v>
+        <v>339.1956810454589</v>
       </c>
       <c r="N24" t="n">
-        <v>1612.702942455104</v>
+        <v>374.6029849007008</v>
       </c>
       <c r="O24" t="n">
-        <v>1636.094691048891</v>
+        <v>1159.125788250382</v>
       </c>
       <c r="P24" t="n">
-        <v>1647.038739719862</v>
+        <v>1785.492768062658</v>
       </c>
       <c r="Q24" t="n">
         <v>2040.107428885225</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>355.5741691016101</v>
+        <v>468.4906315152464</v>
       </c>
       <c r="C25" t="n">
-        <v>298.1742374172575</v>
+        <v>411.0906998308938</v>
       </c>
       <c r="D25" t="n">
-        <v>252.3730334940985</v>
+        <v>360.0085275403265</v>
       </c>
       <c r="E25" t="n">
-        <v>205.1556591163489</v>
+        <v>312.7911531625769</v>
       </c>
       <c r="F25" t="n">
-        <v>154.2179739808711</v>
+        <v>261.8534680270991</v>
       </c>
       <c r="G25" t="n">
-        <v>100.9506732079389</v>
+        <v>208.5861672541668</v>
       </c>
       <c r="H25" t="n">
-        <v>67.61190656320252</v>
+        <v>175.2474006094305</v>
       </c>
       <c r="I25" t="n">
         <v>67.61190656320252</v>
@@ -6169,28 +6169,28 @@
         <v>1878.444586184763</v>
       </c>
       <c r="R25" t="n">
-        <v>1878.444586184763</v>
+        <v>1806.195564791046</v>
       </c>
       <c r="S25" t="n">
-        <v>1810.794060479846</v>
+        <v>1738.545039086129</v>
       </c>
       <c r="T25" t="n">
-        <v>1686.176355732015</v>
+        <v>1613.927334338297</v>
       </c>
       <c r="U25" t="n">
-        <v>1517.087448098303</v>
+        <v>1331.144985950654</v>
       </c>
       <c r="V25" t="n">
-        <v>1243.201703037824</v>
+        <v>1170.952681644106</v>
       </c>
       <c r="W25" t="n">
-        <v>964.1320385466988</v>
+        <v>891.8830171529808</v>
       </c>
       <c r="X25" t="n">
-        <v>725.7881764063823</v>
+        <v>653.5391550126642</v>
       </c>
       <c r="Y25" t="n">
-        <v>501.052477795147</v>
+        <v>542.4968971553599</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1071.281514290207</v>
       </c>
       <c r="F26" t="n">
-        <v>702.4870540544816</v>
+        <v>702.4870540544814</v>
       </c>
       <c r="G26" t="n">
-        <v>346.6404457379168</v>
+        <v>346.6404457379164</v>
       </c>
       <c r="H26" t="n">
-        <v>94.58092088656399</v>
+        <v>94.580920886564</v>
       </c>
       <c r="I26" t="n">
         <v>85.35938375380618</v>
       </c>
       <c r="J26" t="n">
-        <v>393.2592510590645</v>
+        <v>393.2592510590644</v>
       </c>
       <c r="K26" t="n">
         <v>1011.922707507828</v>
       </c>
       <c r="L26" t="n">
-        <v>1824.386382565674</v>
+        <v>1017.264438671219</v>
       </c>
       <c r="M26" t="n">
-        <v>1843.156209891214</v>
+        <v>1904.710179200988</v>
       </c>
       <c r="N26" t="n">
-        <v>2508.03710232905</v>
+        <v>2770.816498837004</v>
       </c>
       <c r="O26" t="n">
-        <v>3258.300120182008</v>
+        <v>3521.079516689962</v>
       </c>
       <c r="P26" t="n">
-        <v>3878.464900864416</v>
+        <v>4141.244297372369</v>
       </c>
       <c r="Q26" t="n">
-        <v>4267.969187690309</v>
+        <v>4187.657766024337</v>
       </c>
       <c r="R26" t="n">
         <v>4267.969187690309</v>
@@ -6303,28 +6303,28 @@
         <v>85.35938375380618</v>
       </c>
       <c r="J27" t="n">
-        <v>310.1641674968065</v>
+        <v>85.35938375380618</v>
       </c>
       <c r="K27" t="n">
-        <v>820.6497212033835</v>
+        <v>595.8449374603831</v>
       </c>
       <c r="L27" t="n">
-        <v>1555.260956376888</v>
+        <v>613.8146221418588</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.043115790466</v>
+        <v>1277.564256703797</v>
       </c>
       <c r="N27" t="n">
-        <v>1630.450419645708</v>
+        <v>1312.971560559039</v>
       </c>
       <c r="O27" t="n">
-        <v>1653.842168239495</v>
+        <v>2097.49436390872</v>
       </c>
       <c r="P27" t="n">
-        <v>1664.786216910466</v>
+        <v>2108.438412579691</v>
       </c>
       <c r="Q27" t="n">
-        <v>2057.854906075829</v>
+        <v>2108.438412579691</v>
       </c>
       <c r="R27" t="n">
         <v>2108.438412579691</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>797.4661221879214</v>
+        <v>797.4661221879215</v>
       </c>
       <c r="C28" t="n">
-        <v>678.6087015602245</v>
+        <v>678.6087015602246</v>
       </c>
       <c r="D28" t="n">
-        <v>571.3500086937211</v>
+        <v>571.3500086937212</v>
       </c>
       <c r="E28" t="n">
-        <v>462.6751453726271</v>
+        <v>462.6751453726272</v>
       </c>
       <c r="F28" t="n">
-        <v>350.2799712938049</v>
+        <v>350.279971293805</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5551815775283</v>
+        <v>235.5551815775284</v>
       </c>
       <c r="H28" t="n">
         <v>140.7589259894476</v>
@@ -6385,10 +6385,10 @@
         <v>170.7090959054321</v>
       </c>
       <c r="K28" t="n">
-        <v>409.4402160517795</v>
+        <v>409.4402160517797</v>
       </c>
       <c r="L28" t="n">
-        <v>762.7398074303609</v>
+        <v>762.739807430361</v>
       </c>
       <c r="M28" t="n">
         <v>1147.700666139367</v>
@@ -6403,16 +6403,16 @@
         <v>2165.267686892259</v>
       </c>
       <c r="Q28" t="n">
-        <v>2305.763714331814</v>
+        <v>2305.763714331813</v>
       </c>
       <c r="R28" t="n">
-        <v>2285.750644748683</v>
+        <v>2285.750644748682</v>
       </c>
       <c r="S28" t="n">
         <v>2156.642630100421</v>
       </c>
       <c r="T28" t="n">
-        <v>1970.567436409245</v>
+        <v>1970.567436409246</v>
       </c>
       <c r="U28" t="n">
         <v>1740.021039832189</v>
@@ -6427,7 +6427,7 @@
         <v>1105.429623572028</v>
       </c>
       <c r="Y28" t="n">
-        <v>932.9298767713792</v>
+        <v>932.9298767713794</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1071.281514290208</v>
       </c>
       <c r="F29" t="n">
-        <v>702.4870540544821</v>
+        <v>702.487054054482</v>
       </c>
       <c r="G29" t="n">
-        <v>346.6404457379172</v>
+        <v>346.640445737917</v>
       </c>
       <c r="H29" t="n">
-        <v>94.580920886564</v>
+        <v>94.58092088656409</v>
       </c>
       <c r="I29" t="n">
-        <v>85.35938375380618</v>
+        <v>85.3593837538062</v>
       </c>
       <c r="J29" t="n">
-        <v>85.35938375380618</v>
+        <v>111.7224021949137</v>
       </c>
       <c r="K29" t="n">
-        <v>704.0228402025696</v>
+        <v>730.3858586436771</v>
       </c>
       <c r="L29" t="n">
-        <v>1516.486515260415</v>
+        <v>1542.849533701523</v>
       </c>
       <c r="M29" t="n">
-        <v>2403.932255790184</v>
+        <v>1561.619361027063</v>
       </c>
       <c r="N29" t="n">
-        <v>3270.0385754262</v>
+        <v>2427.725680663079</v>
       </c>
       <c r="O29" t="n">
-        <v>4020.301593279158</v>
+        <v>3177.988698516037</v>
       </c>
       <c r="P29" t="n">
-        <v>4267.969187690309</v>
+        <v>3798.153479198444</v>
       </c>
       <c r="Q29" t="n">
-        <v>4267.969187690309</v>
+        <v>4187.657766024337</v>
       </c>
       <c r="R29" t="n">
-        <v>4267.969187690309</v>
+        <v>4267.96918769031</v>
       </c>
       <c r="S29" t="n">
-        <v>4199.63849948962</v>
+        <v>4199.638499489621</v>
       </c>
       <c r="T29" t="n">
-        <v>4032.494623969587</v>
+        <v>4032.494623969588</v>
       </c>
       <c r="U29" t="n">
         <v>3827.721741958086</v>
@@ -6519,49 +6519,49 @@
         <v>748.6127437960108</v>
       </c>
       <c r="C30" t="n">
-        <v>614.6176725449565</v>
+        <v>614.6176725449566</v>
       </c>
       <c r="D30" t="n">
-        <v>497.7205147643489</v>
+        <v>497.720514764349</v>
       </c>
       <c r="E30" t="n">
-        <v>377.2276987566769</v>
+        <v>377.227698756677</v>
       </c>
       <c r="F30" t="n">
-        <v>268.2678189391815</v>
+        <v>268.2678189391816</v>
       </c>
       <c r="G30" t="n">
         <v>161.6231990415073</v>
       </c>
       <c r="H30" t="n">
-        <v>94.21271905594068</v>
+        <v>94.2127190559407</v>
       </c>
       <c r="I30" t="n">
-        <v>85.35938375380618</v>
+        <v>85.3593837538062</v>
       </c>
       <c r="J30" t="n">
-        <v>310.1641674968065</v>
+        <v>85.3593837538062</v>
       </c>
       <c r="K30" t="n">
-        <v>820.6497212033835</v>
+        <v>85.3593837538062</v>
       </c>
       <c r="L30" t="n">
-        <v>838.6194058848591</v>
+        <v>103.3290684352819</v>
       </c>
       <c r="M30" t="n">
-        <v>867.4287119426396</v>
+        <v>132.1383744930623</v>
       </c>
       <c r="N30" t="n">
-        <v>902.8360157978815</v>
+        <v>697.548629417733</v>
       </c>
       <c r="O30" t="n">
-        <v>1038.419237098189</v>
+        <v>1482.071432767414</v>
       </c>
       <c r="P30" t="n">
-        <v>1664.786216910466</v>
+        <v>2108.438412579691</v>
       </c>
       <c r="Q30" t="n">
-        <v>2057.854906075829</v>
+        <v>2108.438412579691</v>
       </c>
       <c r="R30" t="n">
         <v>2108.438412579691</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>797.4661221879214</v>
+        <v>797.4661221879204</v>
       </c>
       <c r="C31" t="n">
-        <v>678.6087015602245</v>
+        <v>678.6087015602234</v>
       </c>
       <c r="D31" t="n">
-        <v>571.3500086937211</v>
+        <v>571.3500086937198</v>
       </c>
       <c r="E31" t="n">
-        <v>462.6751453726271</v>
+        <v>462.6751453726257</v>
       </c>
       <c r="F31" t="n">
-        <v>350.2799712938049</v>
+        <v>350.2799712938034</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5551815775283</v>
+        <v>235.5551815775268</v>
       </c>
       <c r="H31" t="n">
-        <v>140.7589259894476</v>
+        <v>140.758925989446</v>
       </c>
       <c r="I31" t="n">
-        <v>85.35938375380618</v>
+        <v>85.3593837538062</v>
       </c>
       <c r="J31" t="n">
         <v>170.7090959054322</v>
@@ -6625,46 +6625,46 @@
         <v>409.4402160517797</v>
       </c>
       <c r="L31" t="n">
-        <v>762.739807430361</v>
+        <v>762.7398074303605</v>
       </c>
       <c r="M31" t="n">
-        <v>1147.700666139367</v>
+        <v>1147.700666139366</v>
       </c>
       <c r="N31" t="n">
-        <v>1523.178132039816</v>
+        <v>1523.178132039815</v>
       </c>
       <c r="O31" t="n">
-        <v>1874.061126824751</v>
+        <v>1874.06112682475</v>
       </c>
       <c r="P31" t="n">
-        <v>2165.267686892259</v>
+        <v>2165.267686892258</v>
       </c>
       <c r="Q31" t="n">
-        <v>2305.763714331813</v>
+        <v>2305.763714331812</v>
       </c>
       <c r="R31" t="n">
-        <v>2285.750644748683</v>
+        <v>2285.750644748682</v>
       </c>
       <c r="S31" t="n">
-        <v>2156.642630100421</v>
+        <v>2156.64263010042</v>
       </c>
       <c r="T31" t="n">
         <v>1970.567436409245</v>
       </c>
       <c r="U31" t="n">
-        <v>1740.021039832189</v>
+        <v>1740.021039832188</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.371246582297</v>
+        <v>1518.371246582296</v>
       </c>
       <c r="W31" t="n">
-        <v>1291.537533901758</v>
+        <v>1291.537533901757</v>
       </c>
       <c r="X31" t="n">
-        <v>1105.429623572028</v>
+        <v>1105.429623572027</v>
       </c>
       <c r="Y31" t="n">
-        <v>932.9298767713792</v>
+        <v>932.9298767713783</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2143.50239493522</v>
+        <v>2143.502394935221</v>
       </c>
       <c r="C32" t="n">
-        <v>1785.613756059077</v>
+        <v>1785.613756059078</v>
       </c>
       <c r="D32" t="n">
-        <v>1433.385777962724</v>
+        <v>1433.385777962725</v>
       </c>
       <c r="E32" t="n">
-        <v>1071.281514290207</v>
+        <v>1071.281514290208</v>
       </c>
       <c r="F32" t="n">
-        <v>702.4870540544816</v>
+        <v>702.4870540544821</v>
       </c>
       <c r="G32" t="n">
-        <v>346.6404457379164</v>
+        <v>346.6404457379172</v>
       </c>
       <c r="H32" t="n">
-        <v>94.58092088656396</v>
+        <v>94.580920886564</v>
       </c>
       <c r="I32" t="n">
         <v>85.35938375380618</v>
@@ -6701,22 +6701,22 @@
         <v>393.2592510590645</v>
       </c>
       <c r="K32" t="n">
-        <v>393.2592510590645</v>
+        <v>1011.922707507828</v>
       </c>
       <c r="L32" t="n">
-        <v>1205.72292611691</v>
+        <v>1017.264438671219</v>
       </c>
       <c r="M32" t="n">
-        <v>2093.168666646679</v>
+        <v>1904.710179200988</v>
       </c>
       <c r="N32" t="n">
-        <v>2959.274986282695</v>
+        <v>2770.816498837004</v>
       </c>
       <c r="O32" t="n">
-        <v>3709.538004135653</v>
+        <v>3521.079516689962</v>
       </c>
       <c r="P32" t="n">
-        <v>3878.464900864416</v>
+        <v>4141.244297372369</v>
       </c>
       <c r="Q32" t="n">
         <v>4267.969187690309</v>
@@ -6731,19 +6731,19 @@
         <v>4032.494623969587</v>
       </c>
       <c r="U32" t="n">
-        <v>3827.721741958085</v>
+        <v>3827.721741958086</v>
       </c>
       <c r="V32" t="n">
-        <v>3530.120139105152</v>
+        <v>3530.120139105153</v>
       </c>
       <c r="W32" t="n">
-        <v>3198.595790050907</v>
+        <v>3198.595790050908</v>
       </c>
       <c r="X32" t="n">
-        <v>2850.188344030446</v>
+        <v>2850.188344030447</v>
       </c>
       <c r="Y32" t="n">
-        <v>2501.487622789123</v>
+        <v>2501.487622789124</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>85.35938375380618</v>
       </c>
       <c r="J33" t="n">
-        <v>310.1641674968065</v>
+        <v>85.35938375380618</v>
       </c>
       <c r="K33" t="n">
-        <v>820.6497212033835</v>
+        <v>85.35938375380618</v>
       </c>
       <c r="L33" t="n">
-        <v>838.6194058848591</v>
+        <v>819.9706189273106</v>
       </c>
       <c r="M33" t="n">
-        <v>867.4287119426396</v>
+        <v>848.779924985091</v>
       </c>
       <c r="N33" t="n">
-        <v>902.8360157978815</v>
+        <v>1458.679684173627</v>
       </c>
       <c r="O33" t="n">
-        <v>1038.419237098189</v>
+        <v>1482.071432767414</v>
       </c>
       <c r="P33" t="n">
-        <v>1664.786216910466</v>
+        <v>2108.438412579691</v>
       </c>
       <c r="Q33" t="n">
-        <v>2057.854906075829</v>
+        <v>2108.438412579691</v>
       </c>
       <c r="R33" t="n">
         <v>2108.438412579691</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>797.4661221879212</v>
+        <v>797.4661221879214</v>
       </c>
       <c r="C34" t="n">
-        <v>678.6087015602243</v>
+        <v>678.6087015602245</v>
       </c>
       <c r="D34" t="n">
-        <v>571.350008693721</v>
+        <v>571.3500086937211</v>
       </c>
       <c r="E34" t="n">
-        <v>462.675145372627</v>
+        <v>462.6751453726271</v>
       </c>
       <c r="F34" t="n">
         <v>350.2799712938049</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5551815775282</v>
+        <v>235.5551815775283</v>
       </c>
       <c r="H34" t="n">
         <v>140.7589259894476</v>
@@ -6856,7 +6856,7 @@
         <v>85.35938375380618</v>
       </c>
       <c r="J34" t="n">
-        <v>170.7090959054321</v>
+        <v>170.7090959054322</v>
       </c>
       <c r="K34" t="n">
         <v>409.4402160517797</v>
@@ -6871,16 +6871,16 @@
         <v>1523.178132039817</v>
       </c>
       <c r="O34" t="n">
-        <v>1874.061126824752</v>
+        <v>1874.061126824751</v>
       </c>
       <c r="P34" t="n">
         <v>2165.267686892259</v>
       </c>
       <c r="Q34" t="n">
-        <v>2305.763714331813</v>
+        <v>2305.763714331814</v>
       </c>
       <c r="R34" t="n">
-        <v>2285.750644748682</v>
+        <v>2285.750644748683</v>
       </c>
       <c r="S34" t="n">
         <v>2156.642630100421</v>
@@ -6901,7 +6901,7 @@
         <v>1105.429623572028</v>
       </c>
       <c r="Y34" t="n">
-        <v>932.929876771379</v>
+        <v>932.9298767713792</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2076.12871547548</v>
       </c>
       <c r="C35" t="n">
-        <v>1727.461613732094</v>
+        <v>1727.461613732095</v>
       </c>
       <c r="D35" t="n">
-        <v>1384.455172768499</v>
+        <v>1384.4551727685</v>
       </c>
       <c r="E35" t="n">
-        <v>1031.57244622874</v>
+        <v>1031.572446228741</v>
       </c>
       <c r="F35" t="n">
-        <v>671.9995231257718</v>
+        <v>671.9995231257726</v>
       </c>
       <c r="G35" t="n">
-        <v>325.3744519419648</v>
+        <v>325.3744519419656</v>
       </c>
       <c r="H35" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337013</v>
       </c>
       <c r="I35" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337013</v>
       </c>
       <c r="J35" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337013</v>
       </c>
       <c r="K35" t="n">
-        <v>701.1999206721335</v>
+        <v>340.7287496000521</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.663595729979</v>
+        <v>1153.192424657898</v>
       </c>
       <c r="M35" t="n">
-        <v>2401.109336259748</v>
+        <v>2040.638165187667</v>
       </c>
       <c r="N35" t="n">
-        <v>3267.215655895764</v>
+        <v>2906.744484823683</v>
       </c>
       <c r="O35" t="n">
-        <v>4017.478673748722</v>
+        <v>3657.007502676641</v>
       </c>
       <c r="P35" t="n">
-        <v>4126.823211168506</v>
+        <v>3657.007502676641</v>
       </c>
       <c r="Q35" t="n">
-        <v>4126.823211168506</v>
+        <v>4046.511789502534</v>
       </c>
       <c r="R35" t="n">
-        <v>4126.823211168506</v>
+        <v>4126.823211168507</v>
       </c>
       <c r="S35" t="n">
-        <v>4067.714060100574</v>
+        <v>4067.714060100575</v>
       </c>
       <c r="T35" t="n">
-        <v>3909.791721713299</v>
+        <v>3909.7917217133</v>
       </c>
       <c r="U35" t="n">
-        <v>3714.240376834555</v>
+        <v>3714.240376834556</v>
       </c>
       <c r="V35" t="n">
-        <v>3425.86031111438</v>
+        <v>3425.860311114381</v>
       </c>
       <c r="W35" t="n">
-        <v>3103.557499192893</v>
+        <v>3103.557499192894</v>
       </c>
       <c r="X35" t="n">
-        <v>2764.37159030519</v>
+        <v>2764.371590305191</v>
       </c>
       <c r="Y35" t="n">
         <v>2424.892406196625</v>
@@ -7005,31 +7005,31 @@
         <v>265.4448994087455</v>
       </c>
       <c r="G36" t="n">
-        <v>158.8002795110712</v>
+        <v>158.8002795110713</v>
       </c>
       <c r="H36" t="n">
-        <v>91.38979952550461</v>
+        <v>91.38979952550463</v>
       </c>
       <c r="I36" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337013</v>
       </c>
       <c r="J36" t="n">
-        <v>307.3412479663704</v>
+        <v>82.53646422337013</v>
       </c>
       <c r="K36" t="n">
-        <v>817.8268016729473</v>
+        <v>593.0220179299471</v>
       </c>
       <c r="L36" t="n">
-        <v>835.796486354423</v>
+        <v>1327.633253103452</v>
       </c>
       <c r="M36" t="n">
-        <v>864.6057924122034</v>
+        <v>1356.442559161232</v>
       </c>
       <c r="N36" t="n">
-        <v>900.0130962674453</v>
+        <v>1391.849863016474</v>
       </c>
       <c r="O36" t="n">
-        <v>1035.596317567753</v>
+        <v>1651.019248709059</v>
       </c>
       <c r="P36" t="n">
         <v>1661.963297380029</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>730.0924427281806</v>
+        <v>730.0924427281807</v>
       </c>
       <c r="C37" t="n">
-        <v>620.4565592332415</v>
+        <v>620.4565592332416</v>
       </c>
       <c r="D37" t="n">
-        <v>522.4194034994958</v>
+        <v>522.419403499496</v>
       </c>
       <c r="E37" t="n">
-        <v>422.9660773111597</v>
+        <v>422.9660773111598</v>
       </c>
       <c r="F37" t="n">
-        <v>319.7924403650953</v>
+        <v>319.7924403650954</v>
       </c>
       <c r="G37" t="n">
         <v>214.2891877815766</v>
@@ -7090,34 +7090,34 @@
         <v>128.7144693262537</v>
       </c>
       <c r="I37" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337013</v>
       </c>
       <c r="J37" t="n">
         <v>176.9242049188119</v>
       </c>
       <c r="K37" t="n">
-        <v>424.6933536089755</v>
+        <v>385.5479858744383</v>
       </c>
       <c r="L37" t="n">
-        <v>787.0309735313729</v>
+        <v>747.8856057968356</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.029860784195</v>
+        <v>1141.884493049658</v>
       </c>
       <c r="N37" t="n">
-        <v>1526.399987493923</v>
+        <v>1466.165502580551</v>
       </c>
       <c r="O37" t="n">
-        <v>1826.086525909302</v>
+        <v>1765.85204099593</v>
       </c>
       <c r="P37" t="n">
-        <v>2066.096629607254</v>
+        <v>2005.862144693883</v>
       </c>
       <c r="Q37" t="n">
         <v>2155.396200677253</v>
       </c>
       <c r="R37" t="n">
-        <v>2144.604668226879</v>
+        <v>2144.60466822688</v>
       </c>
       <c r="S37" t="n">
         <v>2024.718190711376</v>
@@ -7135,10 +7135,10 @@
         <v>1196.499243043744</v>
       </c>
       <c r="X37" t="n">
-        <v>1019.612869846771</v>
+        <v>1019.612869846772</v>
       </c>
       <c r="Y37" t="n">
-        <v>856.3346601788805</v>
+        <v>856.3346601788808</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2076.12871547548</v>
+        <v>2076.128715475479</v>
       </c>
       <c r="C38" t="n">
-        <v>1727.461613732094</v>
+        <v>1727.461613732093</v>
       </c>
       <c r="D38" t="n">
-        <v>1384.455172768499</v>
+        <v>1384.455172768498</v>
       </c>
       <c r="E38" t="n">
-        <v>1031.57244622874</v>
+        <v>1031.572446228739</v>
       </c>
       <c r="F38" t="n">
-        <v>671.9995231257717</v>
+        <v>671.9995231257708</v>
       </c>
       <c r="G38" t="n">
-        <v>325.3744519419645</v>
+        <v>325.3744519419648</v>
       </c>
       <c r="H38" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="I38" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J38" t="n">
         <v>390.4363315286284</v>
@@ -7178,25 +7178,25 @@
         <v>1009.099787977392</v>
       </c>
       <c r="L38" t="n">
-        <v>1821.563463035237</v>
+        <v>1268.916378262119</v>
       </c>
       <c r="M38" t="n">
-        <v>2265.63756899293</v>
+        <v>2156.362118791888</v>
       </c>
       <c r="N38" t="n">
-        <v>2286.579704141275</v>
+        <v>3022.468438427904</v>
       </c>
       <c r="O38" t="n">
-        <v>3036.842721994233</v>
+        <v>3036.842721994232</v>
       </c>
       <c r="P38" t="n">
-        <v>3657.00750267664</v>
+        <v>3657.007502676639</v>
       </c>
       <c r="Q38" t="n">
-        <v>4046.511789502533</v>
+        <v>4046.511789502532</v>
       </c>
       <c r="R38" t="n">
-        <v>4126.823211168506</v>
+        <v>4126.823211168505</v>
       </c>
       <c r="S38" t="n">
         <v>4067.714060100574</v>
@@ -7211,13 +7211,13 @@
         <v>3425.86031111438</v>
       </c>
       <c r="W38" t="n">
-        <v>3103.557499192893</v>
+        <v>3103.557499192892</v>
       </c>
       <c r="X38" t="n">
-        <v>2764.37159030519</v>
+        <v>2764.371590305189</v>
       </c>
       <c r="Y38" t="n">
-        <v>2424.892406196625</v>
+        <v>2424.892406196624</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>374.4047792262409</v>
       </c>
       <c r="F39" t="n">
-        <v>265.4448994087455</v>
+        <v>265.4448994087454</v>
       </c>
       <c r="G39" t="n">
         <v>158.8002795110712</v>
       </c>
       <c r="H39" t="n">
-        <v>91.38979952550461</v>
+        <v>91.38979952550459</v>
       </c>
       <c r="I39" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J39" t="n">
-        <v>307.3412479663704</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="K39" t="n">
-        <v>817.8268016729473</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="L39" t="n">
-        <v>835.796486354423</v>
+        <v>802.2798354463553</v>
       </c>
       <c r="M39" t="n">
-        <v>864.6057924122034</v>
+        <v>831.0891415041357</v>
       </c>
       <c r="N39" t="n">
-        <v>900.0130962674453</v>
+        <v>866.4964453593776</v>
       </c>
       <c r="O39" t="n">
-        <v>1035.596317567753</v>
+        <v>1651.019248709059</v>
       </c>
       <c r="P39" t="n">
         <v>1661.963297380029</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>730.0924427281806</v>
+        <v>730.0924427281807</v>
       </c>
       <c r="C40" t="n">
-        <v>620.4565592332415</v>
+        <v>620.4565592332416</v>
       </c>
       <c r="D40" t="n">
-        <v>522.4194034994958</v>
+        <v>522.419403499496</v>
       </c>
       <c r="E40" t="n">
-        <v>422.9660773111597</v>
+        <v>422.9660773111598</v>
       </c>
       <c r="F40" t="n">
-        <v>319.7924403650953</v>
+        <v>319.7924403650954</v>
       </c>
       <c r="G40" t="n">
         <v>214.2891877815766</v>
@@ -7327,7 +7327,7 @@
         <v>128.7144693262537</v>
       </c>
       <c r="I40" t="n">
-        <v>82.53646422337012</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J40" t="n">
         <v>116.6897200054401</v>
@@ -7336,25 +7336,25 @@
         <v>304.2243837822318</v>
       </c>
       <c r="L40" t="n">
-        <v>666.5620037046292</v>
+        <v>627.4166359700922</v>
       </c>
       <c r="M40" t="n">
-        <v>1060.560890957451</v>
+        <v>1021.415523222914</v>
       </c>
       <c r="N40" t="n">
-        <v>1384.841900488345</v>
+        <v>1345.696532753808</v>
       </c>
       <c r="O40" t="n">
-        <v>1705.617556082558</v>
+        <v>1705.617556082559</v>
       </c>
       <c r="P40" t="n">
-        <v>2005.862144693882</v>
+        <v>2005.862144693883</v>
       </c>
       <c r="Q40" t="n">
         <v>2155.396200677253</v>
       </c>
       <c r="R40" t="n">
-        <v>2144.604668226879</v>
+        <v>2144.60466822688</v>
       </c>
       <c r="S40" t="n">
         <v>2024.718190711376</v>
@@ -7372,10 +7372,10 @@
         <v>1196.499243043744</v>
       </c>
       <c r="X40" t="n">
-        <v>1019.612869846771</v>
+        <v>1019.612869846772</v>
       </c>
       <c r="Y40" t="n">
-        <v>856.3346601788805</v>
+        <v>856.3346601788808</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2076.12871547548</v>
+        <v>2076.128715475479</v>
       </c>
       <c r="C41" t="n">
-        <v>1727.461613732095</v>
+        <v>1727.461613732094</v>
       </c>
       <c r="D41" t="n">
-        <v>1384.4551727685</v>
+        <v>1384.455172768498</v>
       </c>
       <c r="E41" t="n">
-        <v>1031.572446228741</v>
+        <v>1031.572446228739</v>
       </c>
       <c r="F41" t="n">
-        <v>671.999523125773</v>
+        <v>671.9995231257712</v>
       </c>
       <c r="G41" t="n">
-        <v>325.3744519419657</v>
+        <v>325.3744519419647</v>
       </c>
       <c r="H41" t="n">
-        <v>82.53646422337103</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="I41" t="n">
-        <v>82.53646422337013</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J41" t="n">
         <v>390.4363315286284</v>
       </c>
       <c r="K41" t="n">
-        <v>390.4363315286284</v>
+        <v>1009.099787977392</v>
       </c>
       <c r="L41" t="n">
-        <v>1202.900006586474</v>
+        <v>1014.441519140783</v>
       </c>
       <c r="M41" t="n">
-        <v>1500.784806171232</v>
+        <v>1420.473384505258</v>
       </c>
       <c r="N41" t="n">
-        <v>2366.891125807248</v>
+        <v>2286.579704141274</v>
       </c>
       <c r="O41" t="n">
-        <v>3117.154143660206</v>
+        <v>3036.842721994232</v>
       </c>
       <c r="P41" t="n">
-        <v>3737.318924342613</v>
+        <v>3657.007502676639</v>
       </c>
       <c r="Q41" t="n">
-        <v>4126.823211168507</v>
+        <v>4046.511789502532</v>
       </c>
       <c r="R41" t="n">
-        <v>4126.823211168507</v>
+        <v>4126.823211168505</v>
       </c>
       <c r="S41" t="n">
-        <v>4067.714060100575</v>
+        <v>4067.714060100574</v>
       </c>
       <c r="T41" t="n">
-        <v>3909.7917217133</v>
+        <v>3909.791721713299</v>
       </c>
       <c r="U41" t="n">
-        <v>3714.240376834557</v>
+        <v>3714.240376834555</v>
       </c>
       <c r="V41" t="n">
-        <v>3425.860311114382</v>
+        <v>3425.86031111438</v>
       </c>
       <c r="W41" t="n">
-        <v>3103.557499192895</v>
+        <v>3103.557499192893</v>
       </c>
       <c r="X41" t="n">
-        <v>2764.371590305191</v>
+        <v>2764.37159030519</v>
       </c>
       <c r="Y41" t="n">
-        <v>2424.892406196625</v>
+        <v>2424.892406196624</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>374.4047792262409</v>
       </c>
       <c r="F42" t="n">
-        <v>265.4448994087455</v>
+        <v>265.4448994087454</v>
       </c>
       <c r="G42" t="n">
-        <v>158.8002795110713</v>
+        <v>158.8002795110712</v>
       </c>
       <c r="H42" t="n">
-        <v>91.38979952550463</v>
+        <v>91.38979952550459</v>
       </c>
       <c r="I42" t="n">
-        <v>82.53646422337013</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J42" t="n">
-        <v>307.3412479663705</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="K42" t="n">
-        <v>817.8268016729473</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="L42" t="n">
-        <v>835.796486354423</v>
+        <v>100.5061489048458</v>
       </c>
       <c r="M42" t="n">
-        <v>864.6057924122034</v>
+        <v>1029.281176558226</v>
       </c>
       <c r="N42" t="n">
-        <v>900.0130962674453</v>
+        <v>1310.148641028602</v>
       </c>
       <c r="O42" t="n">
-        <v>1035.596317567753</v>
+        <v>2094.671444378283</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.963297380029</v>
+        <v>2105.615493049254</v>
       </c>
       <c r="Q42" t="n">
-        <v>2055.031986545393</v>
+        <v>2105.615493049254</v>
       </c>
       <c r="R42" t="n">
         <v>2105.615493049254</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>730.0924427281807</v>
+        <v>730.0924427281806</v>
       </c>
       <c r="C43" t="n">
-        <v>620.4565592332416</v>
+        <v>620.4565592332415</v>
       </c>
       <c r="D43" t="n">
-        <v>522.419403499496</v>
+        <v>522.4194034994958</v>
       </c>
       <c r="E43" t="n">
-        <v>422.9660773111598</v>
+        <v>422.9660773111597</v>
       </c>
       <c r="F43" t="n">
-        <v>319.7924403650954</v>
+        <v>319.7924403650953</v>
       </c>
       <c r="G43" t="n">
         <v>214.2891877815766</v>
@@ -7564,25 +7564,25 @@
         <v>128.7144693262537</v>
       </c>
       <c r="I43" t="n">
-        <v>82.53646422337013</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J43" t="n">
-        <v>176.924204918812</v>
+        <v>116.6897200054401</v>
       </c>
       <c r="K43" t="n">
-        <v>424.6933536089755</v>
+        <v>364.4588686956037</v>
       </c>
       <c r="L43" t="n">
-        <v>787.0309735313729</v>
+        <v>687.651120883463</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.029860784195</v>
+        <v>1081.650008136285</v>
       </c>
       <c r="N43" t="n">
-        <v>1526.399987493923</v>
+        <v>1466.165502580551</v>
       </c>
       <c r="O43" t="n">
-        <v>1826.086525909302</v>
+        <v>1765.85204099593</v>
       </c>
       <c r="P43" t="n">
         <v>2066.096629607254</v>
@@ -7591,7 +7591,7 @@
         <v>2155.396200677253</v>
       </c>
       <c r="R43" t="n">
-        <v>2144.60466822688</v>
+        <v>2144.604668226879</v>
       </c>
       <c r="S43" t="n">
         <v>2024.718190711376</v>
@@ -7609,10 +7609,10 @@
         <v>1196.499243043744</v>
       </c>
       <c r="X43" t="n">
-        <v>1019.612869846772</v>
+        <v>1019.612869846771</v>
       </c>
       <c r="Y43" t="n">
-        <v>856.3346601788808</v>
+        <v>856.3346601788805</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2076.12871547548</v>
+        <v>2076.128715475479</v>
       </c>
       <c r="C44" t="n">
-        <v>1727.461613732095</v>
+        <v>1727.461613732093</v>
       </c>
       <c r="D44" t="n">
-        <v>1384.455172768499</v>
+        <v>1384.455172768498</v>
       </c>
       <c r="E44" t="n">
-        <v>1031.572446228741</v>
+        <v>1031.572446228739</v>
       </c>
       <c r="F44" t="n">
-        <v>671.9995231257725</v>
+        <v>671.9995231257717</v>
       </c>
       <c r="G44" t="n">
-        <v>325.3744519419654</v>
+        <v>325.3744519419648</v>
       </c>
       <c r="H44" t="n">
-        <v>82.53646422337013</v>
+        <v>82.53646422336998</v>
       </c>
       <c r="I44" t="n">
-        <v>82.53646422337013</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J44" t="n">
-        <v>390.4363315286284</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="K44" t="n">
-        <v>1009.099787977392</v>
+        <v>701.1999206721335</v>
       </c>
       <c r="L44" t="n">
-        <v>1821.563463035238</v>
+        <v>706.5416518355249</v>
       </c>
       <c r="M44" t="n">
-        <v>1840.333290360778</v>
+        <v>1593.987392365294</v>
       </c>
       <c r="N44" t="n">
-        <v>2366.891125807248</v>
+        <v>2460.09371200131</v>
       </c>
       <c r="O44" t="n">
-        <v>3117.154143660206</v>
+        <v>3036.842721994232</v>
       </c>
       <c r="P44" t="n">
-        <v>3737.318924342613</v>
+        <v>3657.007502676639</v>
       </c>
       <c r="Q44" t="n">
-        <v>4126.823211168507</v>
+        <v>4046.511789502532</v>
       </c>
       <c r="R44" t="n">
-        <v>4126.823211168507</v>
+        <v>4126.823211168505</v>
       </c>
       <c r="S44" t="n">
-        <v>4067.714060100576</v>
+        <v>4067.714060100574</v>
       </c>
       <c r="T44" t="n">
-        <v>3909.7917217133</v>
+        <v>3909.791721713299</v>
       </c>
       <c r="U44" t="n">
-        <v>3714.240376834556</v>
+        <v>3714.240376834554</v>
       </c>
       <c r="V44" t="n">
-        <v>3425.860311114381</v>
+        <v>3425.860311114379</v>
       </c>
       <c r="W44" t="n">
-        <v>3103.557499192894</v>
+        <v>3103.557499192892</v>
       </c>
       <c r="X44" t="n">
-        <v>2764.371590305191</v>
+        <v>2764.371590305189</v>
       </c>
       <c r="Y44" t="n">
-        <v>2424.892406196625</v>
+        <v>2424.892406196624</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>374.4047792262409</v>
       </c>
       <c r="F45" t="n">
-        <v>265.4448994087455</v>
+        <v>265.4448994087454</v>
       </c>
       <c r="G45" t="n">
-        <v>158.8002795110713</v>
+        <v>158.8002795110712</v>
       </c>
       <c r="H45" t="n">
-        <v>91.38979952550463</v>
+        <v>91.38979952550459</v>
       </c>
       <c r="I45" t="n">
-        <v>82.53646422337013</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J45" t="n">
-        <v>307.3412479663705</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="K45" t="n">
-        <v>817.8268016729473</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="L45" t="n">
-        <v>1552.438036846452</v>
+        <v>100.5061489048458</v>
       </c>
       <c r="M45" t="n">
-        <v>1592.22019626003</v>
+        <v>1029.281176558226</v>
       </c>
       <c r="N45" t="n">
-        <v>1627.627500115272</v>
+        <v>1455.856764643191</v>
       </c>
       <c r="O45" t="n">
-        <v>1651.019248709059</v>
+        <v>1479.248513236978</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.963297380029</v>
+        <v>2105.615493049254</v>
       </c>
       <c r="Q45" t="n">
-        <v>2055.031986545393</v>
+        <v>2105.615493049254</v>
       </c>
       <c r="R45" t="n">
         <v>2105.615493049254</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>730.0924427281807</v>
+        <v>730.09244272818</v>
       </c>
       <c r="C46" t="n">
-        <v>620.4565592332416</v>
+        <v>620.456559233241</v>
       </c>
       <c r="D46" t="n">
-        <v>522.419403499496</v>
+        <v>522.4194034994955</v>
       </c>
       <c r="E46" t="n">
-        <v>422.9660773111598</v>
+        <v>422.9660773111594</v>
       </c>
       <c r="F46" t="n">
-        <v>319.7924403650954</v>
+        <v>319.7924403650951</v>
       </c>
       <c r="G46" t="n">
-        <v>214.2891877815766</v>
+        <v>214.2891877815764</v>
       </c>
       <c r="H46" t="n">
-        <v>128.7144693262537</v>
+        <v>128.7144693262536</v>
       </c>
       <c r="I46" t="n">
-        <v>82.53646422337013</v>
+        <v>82.53646422337009</v>
       </c>
       <c r="J46" t="n">
-        <v>176.924204918812</v>
+        <v>116.6897200054401</v>
       </c>
       <c r="K46" t="n">
-        <v>424.6933536089755</v>
+        <v>325.3135009610646</v>
       </c>
       <c r="L46" t="n">
-        <v>747.8856057968356</v>
+        <v>627.4166359700901</v>
       </c>
       <c r="M46" t="n">
-        <v>1141.884493049658</v>
+        <v>961.1810383095403</v>
       </c>
       <c r="N46" t="n">
-        <v>1466.165502580551</v>
+        <v>1345.696532753806</v>
       </c>
       <c r="O46" t="n">
-        <v>1826.086525909302</v>
+        <v>1705.617556082557</v>
       </c>
       <c r="P46" t="n">
-        <v>2066.096629607254</v>
+        <v>2005.862144693881</v>
       </c>
       <c r="Q46" t="n">
-        <v>2155.396200677253</v>
+        <v>2155.396200677251</v>
       </c>
       <c r="R46" t="n">
-        <v>2144.60466822688</v>
+        <v>2144.604668226878</v>
       </c>
       <c r="S46" t="n">
-        <v>2024.718190711376</v>
+        <v>2024.718190711374</v>
       </c>
       <c r="T46" t="n">
-        <v>1847.864534152958</v>
+        <v>1847.864534152956</v>
       </c>
       <c r="U46" t="n">
-        <v>1626.539674708659</v>
+        <v>1626.539674708657</v>
       </c>
       <c r="V46" t="n">
-        <v>1414.111418591525</v>
+        <v>1414.111418591524</v>
       </c>
       <c r="W46" t="n">
-        <v>1196.499243043744</v>
+        <v>1196.499243043743</v>
       </c>
       <c r="X46" t="n">
-        <v>1019.612869846772</v>
+        <v>1019.612869846771</v>
       </c>
       <c r="Y46" t="n">
-        <v>856.3346601788808</v>
+        <v>856.33466017888</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.10046808443771</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>98.28281912965761</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>104.2622748139746</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7997,10 +7997,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>99.18023385559253</v>
       </c>
       <c r="R2" t="n">
-        <v>96.458572271164</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>64.60265953574515</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>65.26095326728954</v>
@@ -8076,7 +8076,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>65.46949525596848</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8137,25 +8137,25 @@
         <v>51.43314568295542</v>
       </c>
       <c r="K4" t="n">
-        <v>61.02724631019658</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>63.40517064503126</v>
       </c>
       <c r="M4" t="n">
         <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>60.85907496485993</v>
       </c>
       <c r="O4" t="n">
         <v>65.22132752943682</v>
       </c>
       <c r="P4" t="n">
-        <v>64.92627109634526</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.50595511636605</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>82.47002078974843</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>104.2622748139746</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>102.4366539134859</v>
       </c>
       <c r="N5" t="n">
-        <v>102.0587202130598</v>
+        <v>101.6891675077491</v>
       </c>
       <c r="O5" t="n">
-        <v>102.3362050822236</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>99.18023385559253</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,31 +8292,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>60.14611555112977</v>
       </c>
       <c r="K6" t="n">
-        <v>64.60265953574515</v>
+        <v>64.97221224105587</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>66.7107131948579</v>
       </c>
       <c r="N6" t="n">
-        <v>62.33982285019048</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>66.89790845644049</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>63.40606445924423</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>68.14662856184589</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,16 +8371,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.21002243408518</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K7" t="n">
         <v>52.25036955906683</v>
       </c>
       <c r="L7" t="n">
-        <v>54.62829389390151</v>
+        <v>63.77472335034199</v>
       </c>
       <c r="M7" t="n">
-        <v>56.26494249878004</v>
+        <v>65.04181924990981</v>
       </c>
       <c r="N7" t="n">
         <v>60.85907496485993</v>
@@ -8392,7 +8392,7 @@
         <v>55.77984163990478</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.50595511636605</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>82.10046808443771</v>
+        <v>82.47002078974843</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>104.6318275192853</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>102.4366539134859</v>
@@ -8474,7 +8474,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>96.08901956585328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>60.14611555112977</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>64.97221224105587</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>65.26095326728954</v>
+        <v>64.89140056197881</v>
       </c>
       <c r="M9" t="n">
         <v>66.7107131948579</v>
@@ -8547,13 +8547,13 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>63.40606445924423</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>68.14662856184589</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.57957513939591</v>
+        <v>60.21002243408518</v>
       </c>
       <c r="K10" t="n">
         <v>61.39679901550731</v>
       </c>
       <c r="L10" t="n">
-        <v>63.77472335034199</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>65.04181924990981</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N10" t="n">
         <v>51.71264550841944</v>
       </c>
       <c r="O10" t="n">
-        <v>56.07489807299633</v>
+        <v>65.22132752943682</v>
       </c>
       <c r="P10" t="n">
         <v>55.77984163990478</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.35952565992557</v>
+        <v>70.50595511636605</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,16 +8690,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>7.819263067435386</v>
       </c>
       <c r="L11" t="n">
-        <v>445.7195891596093</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>255.3574806286088</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8766,31 +8766,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>800.7779861789265</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>106.3586973159828</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>408.1227702233948</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.03178569536412</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>37.76384845769641</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8930,25 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>445.7195891596093</v>
+        <v>810.91887378725</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>37.40930010371459</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>21.0001882066254</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>47.15580344461502</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>11.08369025838152</v>
+        <v>238.1592293927253</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>41.64413932046509</v>
+        <v>19.0666258408797</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>334.8935388936474</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9182,10 +9182,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>21.0001882066254</v>
       </c>
       <c r="R17" t="n">
-        <v>47.15580344461502</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>800.7779861789265</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>113.3247199055768</v>
+        <v>4.11766766878754</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>37.76384845769641</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>19.0666258408797</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>7.819263067435386</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>810.91887378725</v>
       </c>
       <c r="N20" t="n">
-        <v>445.7195891596092</v>
+        <v>808.7246234611845</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
@@ -9419,10 +9419,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>257.5601510732423</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>47.15580344461502</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9477,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>800.7779861789265</v>
       </c>
       <c r="N21" t="n">
-        <v>734.9640442907343</v>
+        <v>401.1567476338006</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>13.03178569536412</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>37.76384845769641</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>19.0666258408797</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>7.819263067435386</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>425.5115382765032</v>
+        <v>826.1894104990819</v>
       </c>
       <c r="N23" t="n">
-        <v>823.9951601730163</v>
+        <v>543.9651463944452</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>734.964044290734</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>270.2183117787649</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9878,13 +9878,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>815.2746908024792</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N26" t="n">
-        <v>650.4431891813048</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O26" t="n">
         <v>743.321953824879</v>
@@ -9893,10 +9893,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>67.88247977426923</v>
       </c>
       <c r="R26" t="n">
-        <v>47.15580344461502</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013429</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>11.08369025838164</v>
+        <v>641.3538671759167</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>13.03178569536413</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>37.76384845769641</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>19.06662584087972</v>
+        <v>45.69593739755393</v>
       </c>
       <c r="K29" t="n">
         <v>632.7318453389136</v>
@@ -10118,7 +10118,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M29" t="n">
-        <v>877.4504173780091</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>853.701196452193</v>
@@ -10127,13 +10127,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P29" t="n">
-        <v>251.891294238354</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.00018820662541</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>47.15580344461503</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>535.3565162317462</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3247199055765</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>13.03178569536412</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>37.76384845769641</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>7.819263067435386</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>815.2746908024792</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>877.4504173780091</v>
@@ -10364,10 +10364,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>172.355235973315</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>149.0051279217161</v>
       </c>
       <c r="R32" t="n">
         <v>47.15580344461502</v>
@@ -10425,31 +10425,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>580.29540942757</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3247199055765</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>13.03178569536412</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>37.76384845769641</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>19.0666258408797</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389136</v>
+        <v>268.6195513267101</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10601,13 +10601,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>112.171034651114</v>
+        <v>1.722006954363351</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.0001882066254</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>47.15580344461502</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3247199055765</v>
+        <v>238.1592293927251</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10826,16 +10826,16 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024792</v>
+        <v>257.0453122437735</v>
       </c>
       <c r="M38" t="n">
-        <v>429.6002814466182</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10899,13 +10899,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>708.8623096378884</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3247199055765</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11060,13 +11060,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>7.819263067435386</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>281.934315413351</v>
+        <v>391.1737757969036</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11081,7 +11081,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>47.15580344461502</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>247.9395561769034</v>
       </c>
       <c r="O42" t="n">
-        <v>113.3247199055765</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>13.03178569536412</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>37.76384845769641</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>19.0666258408797</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>510.7229295940659</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>568.0552792187818</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11318,7 +11318,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>47.15580344461502</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>19.05416185013428</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>0.5941692075666651</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>11.08369025838164</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>395.1194790199222</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>13.03178569536412</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>37.76384845769641</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.050383871831761</v>
+        <v>1.050383871831755</v>
       </c>
       <c r="F5" t="n">
         <v>7.673678469408813</v>
@@ -23030,7 +23030,7 @@
         <v>1.050383871831755</v>
       </c>
       <c r="F8" t="n">
-        <v>7.673678469408813</v>
+        <v>7.673678469408818</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>345.1804307259516</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>240.4096078414087</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>102.2777104412298</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>319.0797838022722</v>
       </c>
       <c r="X11" t="n">
-        <v>335.7940497988261</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>223.7627993223263</v>
       </c>
     </row>
     <row r="12">
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.3431150034022</v>
+        <v>156.3431150034023</v>
       </c>
       <c r="U14" t="n">
-        <v>22.33302709735964</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>285.4962650629732</v>
       </c>
       <c r="W14" t="n">
-        <v>319.0797838022722</v>
+        <v>5.328418632151107</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>336.0843922674799</v>
       </c>
     </row>
     <row r="15">
@@ -23780,19 +23780,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.804467264770921</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>52.45743160650628</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>59.2618988712778</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>59.26189887127779</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>52.45743160650628</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.804467264770921</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659842.1916912771</v>
+        <v>659842.1916912772</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659842.1916912771</v>
+        <v>659842.1916912772</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>585751.6230907183</v>
+        <v>585751.6230907185</v>
       </c>
       <c r="C2" t="n">
-        <v>585751.6230907182</v>
+        <v>585751.6230907185</v>
       </c>
       <c r="D2" t="n">
-        <v>585751.6230907183</v>
+        <v>585751.6230907184</v>
       </c>
       <c r="E2" t="n">
         <v>530264.42795604</v>
       </c>
       <c r="F2" t="n">
-        <v>530264.4279560401</v>
+        <v>530264.4279560398</v>
       </c>
       <c r="G2" t="n">
-        <v>582131.0924817075</v>
+        <v>582131.092481707</v>
       </c>
       <c r="H2" t="n">
-        <v>582131.0924817073</v>
+        <v>582131.0924817068</v>
       </c>
       <c r="I2" t="n">
-        <v>586376.6149168456</v>
+        <v>586376.6149168452</v>
       </c>
       <c r="J2" t="n">
-        <v>586376.6149168463</v>
+        <v>586376.6149168459</v>
       </c>
       <c r="K2" t="n">
-        <v>586376.6149168456</v>
+        <v>586376.614916845</v>
       </c>
       <c r="L2" t="n">
-        <v>586376.6149168459</v>
+        <v>586376.614916846</v>
       </c>
       <c r="M2" t="n">
-        <v>586376.6149168449</v>
+        <v>586376.6149168448</v>
       </c>
       <c r="N2" t="n">
         <v>586376.6149168448</v>
       </c>
       <c r="O2" t="n">
-        <v>586376.6149168449</v>
+        <v>586376.614916845</v>
       </c>
       <c r="P2" t="n">
-        <v>586376.6149168448</v>
+        <v>586376.6149168446</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065.178878730687</v>
+        <v>3065.178878730705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4060.75639294706</v>
+        <v>4060.75639294703</v>
       </c>
       <c r="J3" t="n">
         <v>60437.11991442971</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41370.87383398457</v>
+        <v>41370.8738339846</v>
       </c>
       <c r="M3" t="n">
-        <v>203039.5858285651</v>
+        <v>203039.5858285653</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353866.6555309292</v>
+        <v>353859.8786805983</v>
       </c>
       <c r="C4" t="n">
-        <v>353866.6555309292</v>
+        <v>353859.8786805982</v>
       </c>
       <c r="D4" t="n">
-        <v>353866.6555309292</v>
+        <v>353859.8786805982</v>
       </c>
       <c r="E4" t="n">
-        <v>217249.2975959248</v>
+        <v>217222.9571160678</v>
       </c>
       <c r="F4" t="n">
-        <v>217249.2975959248</v>
+        <v>217222.9571160678</v>
       </c>
       <c r="G4" t="n">
-        <v>250060.7135101565</v>
+        <v>250034.3730302994</v>
       </c>
       <c r="H4" t="n">
-        <v>250060.7135101565</v>
+        <v>250034.3730302995</v>
       </c>
       <c r="I4" t="n">
-        <v>251983.3343713107</v>
+        <v>251956.6750285347</v>
       </c>
       <c r="J4" t="n">
-        <v>240927.2832348609</v>
+        <v>240895.9915955198</v>
       </c>
       <c r="K4" t="n">
-        <v>240927.2832348609</v>
+        <v>240895.9915955197</v>
       </c>
       <c r="L4" t="n">
-        <v>240927.2832348609</v>
+        <v>240895.9915955197</v>
       </c>
       <c r="M4" t="n">
-        <v>242660.1776145844</v>
+        <v>242629.6227898511</v>
       </c>
       <c r="N4" t="n">
-        <v>242660.1776145844</v>
+        <v>242629.622789851</v>
       </c>
       <c r="O4" t="n">
-        <v>242660.1776145844</v>
+        <v>242629.622789851</v>
       </c>
       <c r="P4" t="n">
-        <v>242660.1776145844</v>
+        <v>242629.622789851</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>59038.18701306039</v>
       </c>
       <c r="G5" t="n">
-        <v>63385.69700349695</v>
+        <v>63385.69700349696</v>
       </c>
       <c r="H5" t="n">
-        <v>63385.69700349695</v>
+        <v>63385.69700349696</v>
       </c>
       <c r="I5" t="n">
         <v>64314.14563557634</v>
@@ -26500,16 +26500,16 @@
         <v>72687.22535883688</v>
       </c>
       <c r="M5" t="n">
-        <v>71309.29946686715</v>
+        <v>71309.29946686716</v>
       </c>
       <c r="N5" t="n">
-        <v>71309.29946686715</v>
+        <v>71309.29946686713</v>
       </c>
       <c r="O5" t="n">
-        <v>71309.29946686716</v>
+        <v>71309.29946686713</v>
       </c>
       <c r="P5" t="n">
-        <v>71309.29946686716</v>
+        <v>71309.29946686713</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194636.0857701068</v>
+        <v>194641.126532032</v>
       </c>
       <c r="C6" t="n">
-        <v>197701.2646488374</v>
+        <v>197706.3054107628</v>
       </c>
       <c r="D6" t="n">
-        <v>197701.2646488375</v>
+        <v>197706.3054107627</v>
       </c>
       <c r="E6" t="n">
-        <v>-167505.0851457069</v>
+        <v>-167634.6118518521</v>
       </c>
       <c r="F6" t="n">
-        <v>253976.9433470549</v>
+        <v>253847.4166409094</v>
       </c>
       <c r="G6" t="n">
-        <v>227313.8081340695</v>
+        <v>227328.3554960506</v>
       </c>
       <c r="H6" t="n">
-        <v>268684.6819680539</v>
+        <v>268699.2293300349</v>
       </c>
       <c r="I6" t="n">
-        <v>266018.3785170115</v>
+        <v>266045.0378597871</v>
       </c>
       <c r="J6" t="n">
-        <v>212324.9864087188</v>
+        <v>212356.2780480596</v>
       </c>
       <c r="K6" t="n">
-        <v>272762.1063231478</v>
+        <v>272793.3979624885</v>
       </c>
       <c r="L6" t="n">
-        <v>231391.2324891635</v>
+        <v>231422.5241285049</v>
       </c>
       <c r="M6" t="n">
-        <v>69367.55200682813</v>
+        <v>69398.10683156124</v>
       </c>
       <c r="N6" t="n">
-        <v>272407.1378353932</v>
+        <v>272437.6926601268</v>
       </c>
       <c r="O6" t="n">
-        <v>272407.1378353933</v>
+        <v>272437.6926601269</v>
       </c>
       <c r="P6" t="n">
-        <v>272407.1378353931</v>
+        <v>272437.6926601265</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F2" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G2" t="n">
         <v>112.5565063463916</v>
@@ -26710,22 +26710,22 @@
         <v>51.71359229248068</v>
       </c>
       <c r="K2" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="L2" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="M2" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="N2" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="O2" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="P2" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
     </row>
     <row r="3">
@@ -26796,16 +26796,16 @@
         <v>9.146429456440487</v>
       </c>
       <c r="E4" t="n">
-        <v>829.8782953281996</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="F4" t="n">
-        <v>829.8782953281996</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="G4" t="n">
-        <v>829.8782953281996</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="H4" t="n">
-        <v>829.8782953281996</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="I4" t="n">
         <v>845.1488320400315</v>
@@ -26820,16 +26820,16 @@
         <v>1066.992296922577</v>
       </c>
       <c r="M4" t="n">
-        <v>1031.705802792126</v>
+        <v>1031.705802792127</v>
       </c>
       <c r="N4" t="n">
         <v>1031.705802792126</v>
       </c>
       <c r="O4" t="n">
-        <v>1031.705802792127</v>
+        <v>1031.705802792126</v>
       </c>
       <c r="P4" t="n">
-        <v>1031.705802792127</v>
+        <v>1031.705802792126</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.71359229248072</v>
+        <v>51.71359229248075</v>
       </c>
       <c r="M2" t="n">
-        <v>9.129321761430212</v>
+        <v>9.129321761430241</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>820.7318658717591</v>
+        <v>820.7318658717592</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15.27053671183194</v>
+        <v>15.27053671183182</v>
       </c>
       <c r="J4" t="n">
         <v>230.9898943389862</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>785.4453717413082</v>
+        <v>785.4453717413086</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>820.7318658717591</v>
+        <v>820.7318658717592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27458,19 +27458,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>123.5086910821033</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>106.581756746361</v>
       </c>
       <c r="E3" t="n">
-        <v>110.1414583911548</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>99.81410595408768</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>96.77378210236419</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>97.76368033039377</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -27524,7 +27524,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>149.7517649745755</v>
       </c>
     </row>
     <row r="4">
@@ -27543,13 +27543,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>151.2455319151309</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8383851740742</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>156.4314577072715</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.27356168491386</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>175.3814209824483</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>228.0068221766244</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>271.9139909141043</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>262.0004581534328</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -27701,19 +27701,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>110.1414583911548</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>98.72385156287997</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>96.77378210236419</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>11.39467600952174</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>98.85393472160148</v>
+        <v>97.76368033039377</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -27752,10 +27752,10 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>203.5182366716637</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>201.954407124594</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -27777,7 +27777,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>149.8435231650863</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27786,13 +27786,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>157.5217120984792</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>138.9649511861574</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>106.0361559802766</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.27356168491386</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27828,10 +27828,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>270.8237365228966</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>262.0004581534328</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -27840,7 +27840,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.3419121686824</v>
       </c>
     </row>
     <row r="8">
@@ -27935,10 +27935,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>106.581756746361</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>110.1414583911548</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
@@ -27950,7 +27950,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>11.39467600952174</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>97.76368033039377</v>
       </c>
       <c r="T9" t="n">
-        <v>149.6922701096291</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>186.230873296723</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>202.427982280456</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -27998,7 +27998,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>149.7517649745755</v>
       </c>
     </row>
     <row r="10">
@@ -28017,13 +28017,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>151.2455319151309</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8383851740742</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>156.4314577072715</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28059,7 +28059,7 @@
         <v>75.27356168491386</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>176.471675373656</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28071,13 +28071,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>267.1325383897739</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.3419121686824</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="C11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="D11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="E11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="H11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="I11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="T11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="U11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="V11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="W11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="X11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Y11" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
     </row>
     <row r="12">
@@ -28245,43 +28245,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="C13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="D13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="E13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="H13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="I13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="J13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="K13" t="n">
-        <v>60.84291405391092</v>
+        <v>21.30213856447943</v>
       </c>
       <c r="L13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="M13" t="n">
-        <v>60.84291405391092</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>21.30213856447915</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="R13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="S13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="T13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="U13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="V13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="W13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="X13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="C14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="D14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="E14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="H14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="I14" t="n">
         <v>60.84291405391091</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="T14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="U14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="V14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="W14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="X14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Y14" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="C16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="D16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="E16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="H16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="I16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="J16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="K16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="L16" t="n">
-        <v>60.84291405391092</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>60.84291405391092</v>
+        <v>21.30213856447943</v>
       </c>
       <c r="N16" t="n">
-        <v>21.30213856447915</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="S16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="T16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="U16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="V16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="W16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="X16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
     </row>
     <row r="17">
@@ -28719,16 +28719,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="E19" t="n">
-        <v>112.5565063463916</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>112.5565063463916</v>
@@ -28740,7 +28740,7 @@
         <v>112.5565063463916</v>
       </c>
       <c r="I19" t="n">
-        <v>106.5591391057657</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,16 +28767,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>71.52653117978065</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>112.5565063463916</v>
       </c>
       <c r="T19" t="n">
-        <v>112.5565063463916</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>112.5565063463916</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>112.5565063463916</v>
@@ -28785,10 +28785,10 @@
         <v>112.5565063463916</v>
       </c>
       <c r="X19" t="n">
-        <v>41.79918372350272</v>
+        <v>107.3283476626578</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
     </row>
     <row r="20">
@@ -28956,19 +28956,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.79918372350269</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="G22" t="n">
         <v>112.5565063463916</v>
@@ -29007,25 +29007,25 @@
         <v>71.52653117978065</v>
       </c>
       <c r="S22" t="n">
-        <v>112.5565063463916</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>112.5565063463916</v>
+        <v>41.79918372350269</v>
       </c>
       <c r="U22" t="n">
-        <v>112.5565063463916</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>112.5565063463916</v>
       </c>
       <c r="W22" t="n">
-        <v>112.5565063463916</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>112.5565063463916</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.5565063463916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.79918372350247</v>
+        <v>112.5565063463916</v>
       </c>
       <c r="C25" t="n">
         <v>112.5565063463916</v>
       </c>
       <c r="D25" t="n">
-        <v>112.5565063463916</v>
+        <v>107.3283476626574</v>
       </c>
       <c r="E25" t="n">
         <v>112.5565063463916</v>
@@ -29214,7 +29214,7 @@
         <v>112.5565063463916</v>
       </c>
       <c r="I25" t="n">
-        <v>106.5591391057657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>71.52653117978065</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>112.5565063463916</v>
@@ -29250,11 +29250,11 @@
         <v>112.5565063463916</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>112.5565063463916</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>112.5565063463916</v>
       </c>
     </row>
     <row r="26">
@@ -29457,7 +29457,7 @@
         <v>51.71359229248068</v>
       </c>
       <c r="K28" t="n">
-        <v>51.71359229248057</v>
+        <v>51.71359229248068</v>
       </c>
       <c r="L28" t="n">
         <v>51.71359229248068</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="C29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="D29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="E29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="F29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="G29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="H29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="I29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="T29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="U29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="V29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="W29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="X29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="Y29" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="C31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="D31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="E31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="F31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="G31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="H31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="I31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="J31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="K31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="L31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="M31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="N31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="O31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="P31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="R31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="S31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="T31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="U31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="V31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="W31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="X31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
       <c r="Y31" t="n">
-        <v>51.71359229248068</v>
+        <v>51.71359229248061</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="C32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="D32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="E32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="F32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="G32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="H32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="I32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="T32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="U32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="V32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="W32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="X32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="Y32" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="C34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="D34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="E34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="F34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="G34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="H34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="I34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="J34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="K34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="L34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="M34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="N34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="O34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="P34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="R34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="S34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="T34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="U34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="V34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="W34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="X34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.71359229248071</v>
+        <v>51.71359229248067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="C35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="D35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="E35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="H35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="I35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="T35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="U35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="V35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="W35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="X35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
     </row>
     <row r="36">
@@ -30141,43 +30141,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="C37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="D37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="E37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="H37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="I37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="J37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="K37" t="n">
-        <v>60.84291405391092</v>
+        <v>21.30213856447949</v>
       </c>
       <c r="L37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="M37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="N37" t="n">
-        <v>21.3021385644787</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="R37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="S37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="T37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="U37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="V37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="W37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="X37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Y37" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="C38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="D38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="E38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="H38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="I38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="T38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="U38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="V38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="W38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="X38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Y38" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="C40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="D40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="E40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="F40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="G40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="H40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="I40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30408,46 +30408,46 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>60.84291405391092</v>
+        <v>21.30213856447972</v>
       </c>
       <c r="M40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>21.30213856447926</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="P40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="R40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="S40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="T40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="U40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="V40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="W40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="X40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="C41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="D41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="E41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="F41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="G41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="H41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="I41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391091</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="T41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="U41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="V41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="W41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="X41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="Y41" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="C43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="D43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="E43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="F43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="G43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="H43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="I43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="J43" t="n">
-        <v>60.84291405391092</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="L43" t="n">
-        <v>60.84291405391092</v>
+        <v>21.30213856447864</v>
       </c>
       <c r="M43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="N43" t="n">
-        <v>21.30213856447915</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="S43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="T43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="U43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="V43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="W43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="X43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391094</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="C44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="D44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="E44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="F44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="G44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="H44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="I44" t="n">
-        <v>60.84291405391091</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="T44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="U44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="V44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="W44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="X44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="Y44" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="C46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="D46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="E46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="F46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="G46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="H46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="I46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="J46" t="n">
-        <v>60.84291405391092</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.84291405391092</v>
+        <v>21.30213856447753</v>
       </c>
       <c r="L46" t="n">
-        <v>21.30213856447949</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>60.84291405391092</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="O46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="R46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="S46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="T46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="U46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="V46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="W46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="X46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
       <c r="Y46" t="n">
-        <v>60.84291405391092</v>
+        <v>60.84291405391102</v>
       </c>
     </row>
   </sheetData>
@@ -32935,19 +32935,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6392667402162411</v>
+        <v>0.639266740216241</v>
       </c>
       <c r="H26" t="n">
-        <v>6.546890503239581</v>
+        <v>6.546890503239579</v>
       </c>
       <c r="I26" t="n">
-        <v>24.64533100218666</v>
+        <v>24.64533100218665</v>
       </c>
       <c r="J26" t="n">
-        <v>54.25696549242824</v>
+        <v>54.25696549242823</v>
       </c>
       <c r="K26" t="n">
-        <v>81.31712660578174</v>
+        <v>81.31712660578172</v>
       </c>
       <c r="L26" t="n">
         <v>100.8810861066745</v>
@@ -32962,22 +32962,22 @@
         <v>107.7092539756093</v>
       </c>
       <c r="P26" t="n">
-        <v>91.92735632652081</v>
+        <v>91.92735632652079</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.03361619252665</v>
+        <v>69.03361619252664</v>
       </c>
       <c r="R26" t="n">
-        <v>40.15633937010849</v>
+        <v>40.15633937010848</v>
       </c>
       <c r="S26" t="n">
         <v>14.56729084267761</v>
       </c>
       <c r="T26" t="n">
-        <v>2.798390155296597</v>
+        <v>2.798390155296596</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05114133921729928</v>
+        <v>0.05114133921729927</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3420378601072089</v>
+        <v>0.3420378601072088</v>
       </c>
       <c r="H27" t="n">
-        <v>3.30336564893015</v>
+        <v>3.303365648930149</v>
       </c>
       <c r="I27" t="n">
         <v>11.77630351684908</v>
@@ -33026,37 +33026,37 @@
         <v>32.31507694986573</v>
       </c>
       <c r="K27" t="n">
-        <v>55.23161357704873</v>
+        <v>55.23161357704872</v>
       </c>
       <c r="L27" t="n">
-        <v>74.26572045880428</v>
+        <v>74.26572045880427</v>
       </c>
       <c r="M27" t="n">
-        <v>86.66459288769059</v>
+        <v>86.66459288769057</v>
       </c>
       <c r="N27" t="n">
-        <v>88.95834678288324</v>
+        <v>88.95834678288323</v>
       </c>
       <c r="O27" t="n">
-        <v>81.37950788261298</v>
+        <v>81.37950788261297</v>
       </c>
       <c r="P27" t="n">
         <v>65.31422961994588</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.6608328094746</v>
+        <v>43.66083280947459</v>
       </c>
       <c r="R27" t="n">
-        <v>21.236350647709</v>
+        <v>21.23635064770899</v>
       </c>
       <c r="S27" t="n">
-        <v>6.353203234886091</v>
+        <v>6.35320323488609</v>
       </c>
       <c r="T27" t="n">
         <v>1.378652602800547</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02250249079652691</v>
+        <v>0.0225024907965269</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2867530521174903</v>
+        <v>0.2867530521174902</v>
       </c>
       <c r="H28" t="n">
-        <v>2.549495317917325</v>
+        <v>2.549495317917324</v>
       </c>
       <c r="I28" t="n">
-        <v>8.623446330951438</v>
+        <v>8.623446330951436</v>
       </c>
       <c r="J28" t="n">
         <v>20.27344078470656</v>
       </c>
       <c r="K28" t="n">
-        <v>33.31549096419568</v>
+        <v>33.31549096419567</v>
       </c>
       <c r="L28" t="n">
-        <v>42.63235831208579</v>
+        <v>42.63235831208578</v>
       </c>
       <c r="M28" t="n">
-        <v>44.94984434238077</v>
+        <v>44.94984434238076</v>
       </c>
       <c r="N28" t="n">
         <v>43.88103751176106</v>
       </c>
       <c r="O28" t="n">
-        <v>40.5312404938431</v>
+        <v>40.53124049384309</v>
       </c>
       <c r="P28" t="n">
-        <v>34.68147823064627</v>
+        <v>34.68147823064626</v>
       </c>
       <c r="Q28" t="n">
         <v>24.0116578459473</v>
       </c>
       <c r="R28" t="n">
-        <v>12.8934599615737</v>
+        <v>12.89345996157369</v>
       </c>
       <c r="S28" t="n">
         <v>4.997323644629351</v>
       </c>
       <c r="T28" t="n">
-        <v>1.225217586320186</v>
+        <v>1.225217586320185</v>
       </c>
       <c r="U28" t="n">
         <v>0.01564107557004494</v>
@@ -33172,19 +33172,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.639266740216241</v>
+        <v>0.6392667402162411</v>
       </c>
       <c r="H29" t="n">
-        <v>6.546890503239579</v>
+        <v>6.546890503239581</v>
       </c>
       <c r="I29" t="n">
-        <v>24.64533100218665</v>
+        <v>24.64533100218666</v>
       </c>
       <c r="J29" t="n">
-        <v>54.25696549242823</v>
+        <v>54.25696549242824</v>
       </c>
       <c r="K29" t="n">
-        <v>81.31712660578172</v>
+        <v>81.31712660578174</v>
       </c>
       <c r="L29" t="n">
         <v>100.8810861066745</v>
@@ -33199,22 +33199,22 @@
         <v>107.7092539756093</v>
       </c>
       <c r="P29" t="n">
-        <v>91.92735632652079</v>
+        <v>91.92735632652081</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.03361619252664</v>
+        <v>69.03361619252665</v>
       </c>
       <c r="R29" t="n">
-        <v>40.15633937010848</v>
+        <v>40.15633937010849</v>
       </c>
       <c r="S29" t="n">
         <v>14.56729084267761</v>
       </c>
       <c r="T29" t="n">
-        <v>2.798390155296596</v>
+        <v>2.798390155296597</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05114133921729927</v>
+        <v>0.05114133921729928</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3420378601072088</v>
+        <v>0.3420378601072089</v>
       </c>
       <c r="H30" t="n">
-        <v>3.303365648930149</v>
+        <v>3.30336564893015</v>
       </c>
       <c r="I30" t="n">
         <v>11.77630351684908</v>
@@ -33263,37 +33263,37 @@
         <v>32.31507694986573</v>
       </c>
       <c r="K30" t="n">
-        <v>55.23161357704872</v>
+        <v>55.23161357704873</v>
       </c>
       <c r="L30" t="n">
-        <v>74.26572045880427</v>
+        <v>74.26572045880428</v>
       </c>
       <c r="M30" t="n">
-        <v>86.66459288769057</v>
+        <v>86.66459288769059</v>
       </c>
       <c r="N30" t="n">
-        <v>88.95834678288323</v>
+        <v>88.95834678288324</v>
       </c>
       <c r="O30" t="n">
-        <v>81.37950788261297</v>
+        <v>81.37950788261298</v>
       </c>
       <c r="P30" t="n">
         <v>65.31422961994588</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.66083280947459</v>
+        <v>43.6608328094746</v>
       </c>
       <c r="R30" t="n">
-        <v>21.23635064770899</v>
+        <v>21.236350647709</v>
       </c>
       <c r="S30" t="n">
-        <v>6.35320323488609</v>
+        <v>6.353203234886091</v>
       </c>
       <c r="T30" t="n">
         <v>1.378652602800547</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0225024907965269</v>
+        <v>0.02250249079652691</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2867530521174902</v>
+        <v>0.2867530521174903</v>
       </c>
       <c r="H31" t="n">
-        <v>2.549495317917324</v>
+        <v>2.549495317917325</v>
       </c>
       <c r="I31" t="n">
-        <v>8.623446330951436</v>
+        <v>8.623446330951438</v>
       </c>
       <c r="J31" t="n">
         <v>20.27344078470656</v>
       </c>
       <c r="K31" t="n">
-        <v>33.31549096419567</v>
+        <v>33.31549096419568</v>
       </c>
       <c r="L31" t="n">
-        <v>42.63235831208578</v>
+        <v>42.63235831208579</v>
       </c>
       <c r="M31" t="n">
-        <v>44.94984434238076</v>
+        <v>44.94984434238077</v>
       </c>
       <c r="N31" t="n">
         <v>43.88103751176106</v>
       </c>
       <c r="O31" t="n">
-        <v>40.53124049384309</v>
+        <v>40.5312404938431</v>
       </c>
       <c r="P31" t="n">
-        <v>34.68147823064626</v>
+        <v>34.68147823064627</v>
       </c>
       <c r="Q31" t="n">
         <v>24.0116578459473</v>
       </c>
       <c r="R31" t="n">
-        <v>12.89345996157369</v>
+        <v>12.8934599615737</v>
       </c>
       <c r="S31" t="n">
         <v>4.997323644629351</v>
       </c>
       <c r="T31" t="n">
-        <v>1.225217586320185</v>
+        <v>1.225217586320186</v>
       </c>
       <c r="U31" t="n">
         <v>0.01564107557004494</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.776876751129757</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>9.146429456440487</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.776876751129757</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34717,10 +34717,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="R2" t="n">
-        <v>9.146429456440487</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8.776876751129757</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>9.146429456440487</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>9.146429456440487</v>
+      </c>
+      <c r="L4" t="n">
         <v>8.776876751129757</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="O4" t="n">
         <v>9.146429456440487</v>
       </c>
       <c r="P4" t="n">
-        <v>9.146429456440487</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.146429456440487</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>8.776876751129757</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>9.146429456440487</v>
       </c>
       <c r="N5" t="n">
+        <v>8.776876751129761</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>9.146429456440487</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9.146429456440487</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8.776876751129757</v>
       </c>
       <c r="K6" t="n">
-        <v>8.776876751129757</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>9.146429456440487</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9.146429456440487</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9.146429456440487</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,16 +35091,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.146429456440487</v>
+      </c>
+      <c r="M7" t="n">
         <v>8.776876751129757</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>9.146429456440487</v>
@@ -35112,7 +35112,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.146429456440487</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8.776876751129757</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>9.146429456440487</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>9.146429456440487</v>
@@ -35194,7 +35194,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>8.776876751129757</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.146429456440487</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9.146429456440487</v>
       </c>
       <c r="M9" t="n">
         <v>9.146429456440487</v>
@@ -35267,13 +35267,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.146429456440487</v>
+        <v>8.776876751129757</v>
       </c>
       <c r="K10" t="n">
         <v>9.146429456440487</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>9.146429456440487</v>
       </c>
-      <c r="M10" t="n">
-        <v>8.776876751129761</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.146429456440487</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>311.0099669750084</v>
       </c>
       <c r="K11" t="n">
-        <v>624.9125822714782</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>451.1152772034391</v>
+        <v>820.6703788463088</v>
       </c>
       <c r="M11" t="n">
         <v>18.95942154094966</v>
       </c>
       <c r="N11" t="n">
-        <v>21.15367186701521</v>
+        <v>276.511152495624</v>
       </c>
       <c r="O11" t="n">
         <v>757.8414321747051</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>742.0315506803075</v>
+        <v>18.15119664795523</v>
       </c>
       <c r="M12" t="n">
-        <v>29.10030914927317</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="N12" t="n">
-        <v>35.76495338913325</v>
+        <v>142.123650705116</v>
       </c>
       <c r="O12" t="n">
         <v>23.62802888261299</v>
       </c>
       <c r="P12" t="n">
-        <v>419.1773648405369</v>
+        <v>632.6939190022995</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>397.0390799650133</v>
       </c>
       <c r="R12" t="n">
-        <v>51.09445101400182</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>95.34115221761802</v>
+        <v>95.341152217618</v>
       </c>
       <c r="K13" t="n">
-        <v>250.2718673638015</v>
+        <v>210.73109187437</v>
       </c>
       <c r="L13" t="n">
         <v>365.9975958812094</v>
       </c>
       <c r="M13" t="n">
-        <v>397.9786739927496</v>
+        <v>337.1357599388386</v>
       </c>
       <c r="N13" t="n">
-        <v>348.8587138482102</v>
+        <v>388.399489337642</v>
       </c>
       <c r="O13" t="n">
         <v>302.7136751670493</v>
@@ -35586,7 +35586,7 @@
         <v>242.4344481797497</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.20158693939258</v>
+        <v>151.0445009933035</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>624.9125822714782</v>
       </c>
       <c r="L14" t="n">
-        <v>5.395688043829722</v>
+        <v>820.6703788463088</v>
       </c>
       <c r="M14" t="n">
-        <v>464.6790107005589</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="N14" t="n">
-        <v>21.15367186701521</v>
+        <v>58.56297197072979</v>
       </c>
       <c r="O14" t="n">
-        <v>757.8414321747051</v>
+        <v>14.51947834982614</v>
       </c>
       <c r="P14" t="n">
         <v>626.4290713963708</v>
       </c>
       <c r="Q14" t="n">
-        <v>393.4386735615085</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>81.12264814744668</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>515.6419734409868</v>
@@ -35741,7 +35741,7 @@
         <v>23.62802888261299</v>
       </c>
       <c r="P15" t="n">
-        <v>22.13828487552365</v>
+        <v>249.2138240098675</v>
       </c>
       <c r="Q15" t="n">
         <v>397.0390799650133</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>95.34115221761802</v>
+        <v>95.341152217618</v>
       </c>
       <c r="K16" t="n">
         <v>250.2718673638015</v>
       </c>
       <c r="L16" t="n">
-        <v>365.9975958812094</v>
+        <v>305.1546818272985</v>
       </c>
       <c r="M16" t="n">
-        <v>397.9786739927496</v>
+        <v>358.4378985033181</v>
       </c>
       <c r="N16" t="n">
-        <v>348.8587138482102</v>
+        <v>388.399489337642</v>
       </c>
       <c r="O16" t="n">
         <v>302.7136751670493</v>
       </c>
       <c r="P16" t="n">
-        <v>242.4344481797497</v>
+        <v>303.2773622336606</v>
       </c>
       <c r="Q16" t="n">
         <v>90.20158693939258</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>22.57751347958539</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>624.9125822714782</v>
@@ -35893,7 +35893,7 @@
         <v>18.95942154094966</v>
       </c>
       <c r="N17" t="n">
-        <v>21.15367186701521</v>
+        <v>356.0472107606626</v>
       </c>
       <c r="O17" t="n">
         <v>757.8414321747051</v>
@@ -35902,10 +35902,10 @@
         <v>626.4290713963708</v>
       </c>
       <c r="Q17" t="n">
-        <v>393.4386735615085</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>81.12264814744668</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>18.15119664795523</v>
+        <v>742.0315506803075</v>
       </c>
       <c r="M18" t="n">
-        <v>29.10030914927317</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="N18" t="n">
         <v>35.76495338913325</v>
       </c>
       <c r="O18" t="n">
-        <v>136.9527487881898</v>
+        <v>27.74569655140053</v>
       </c>
       <c r="P18" t="n">
-        <v>632.6939190022995</v>
+        <v>11.05459461714213</v>
       </c>
       <c r="Q18" t="n">
         <v>397.0390799650133</v>
       </c>
       <c r="R18" t="n">
-        <v>51.09445101400182</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>311.0099669750084</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>624.9125822714782</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>5.395688043829722</v>
       </c>
       <c r="M20" t="n">
-        <v>18.95942154094966</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="N20" t="n">
-        <v>466.8732610266244</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="O20" t="n">
         <v>757.8414321747051</v>
@@ -36139,10 +36139,10 @@
         <v>626.4290713963708</v>
       </c>
       <c r="Q20" t="n">
-        <v>393.4386735615085</v>
+        <v>236.5599628666169</v>
       </c>
       <c r="R20" t="n">
-        <v>81.12264814744668</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>18.15119664795523</v>
+        <v>742.0315506803075</v>
       </c>
       <c r="M21" t="n">
-        <v>29.10030914927317</v>
+        <v>829.8782953281997</v>
       </c>
       <c r="N21" t="n">
-        <v>770.7289976798675</v>
+        <v>436.9217010229339</v>
       </c>
       <c r="O21" t="n">
         <v>23.62802888261299</v>
@@ -36218,10 +36218,10 @@
         <v>11.05459461714213</v>
       </c>
       <c r="Q21" t="n">
-        <v>397.0390799650133</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>51.09445101400182</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>311.0099669750084</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>624.9125822714782</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.395688043829722</v>
+        <v>820.6703788463088</v>
       </c>
       <c r="M23" t="n">
-        <v>444.4709598174529</v>
+        <v>845.1488320400315</v>
       </c>
       <c r="N23" t="n">
-        <v>845.1488320400315</v>
+        <v>565.1188182614604</v>
       </c>
       <c r="O23" t="n">
         <v>14.51947834982614</v>
@@ -36437,7 +36437,7 @@
         <v>227.0755391343438</v>
       </c>
       <c r="K24" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>18.15119664795523</v>
@@ -36446,16 +36446,16 @@
         <v>29.10030914927317</v>
       </c>
       <c r="N24" t="n">
-        <v>770.7289976798673</v>
+        <v>35.76495338913325</v>
       </c>
       <c r="O24" t="n">
-        <v>23.62802888261299</v>
+        <v>792.4472761107891</v>
       </c>
       <c r="P24" t="n">
-        <v>11.05459461714213</v>
+        <v>632.6939190022995</v>
       </c>
       <c r="Q24" t="n">
-        <v>397.0390799650133</v>
+        <v>257.1865260834007</v>
       </c>
       <c r="R24" t="n">
         <v>51.09445101400182</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0099669750084</v>
+        <v>311.0099669750083</v>
       </c>
       <c r="K26" t="n">
         <v>624.9125822714782</v>
       </c>
       <c r="L26" t="n">
-        <v>820.6703788463088</v>
+        <v>5.395688043829708</v>
       </c>
       <c r="M26" t="n">
-        <v>18.95942154094966</v>
+        <v>896.4098389189587</v>
       </c>
       <c r="N26" t="n">
-        <v>671.59686104832</v>
+        <v>874.8548683192082</v>
       </c>
       <c r="O26" t="n">
         <v>757.8414321747051</v>
@@ -36613,10 +36613,10 @@
         <v>626.4290713963708</v>
       </c>
       <c r="Q26" t="n">
-        <v>393.4386735615085</v>
+        <v>46.88229156764382</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.12264814744668</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>515.6419734409868</v>
       </c>
       <c r="L27" t="n">
-        <v>742.0315506803075</v>
+        <v>18.15119664795522</v>
       </c>
       <c r="M27" t="n">
-        <v>40.1839994076548</v>
+        <v>670.4541763251898</v>
       </c>
       <c r="N27" t="n">
-        <v>35.76495338913325</v>
+        <v>35.76495338913323</v>
       </c>
       <c r="O27" t="n">
-        <v>23.62802888261299</v>
+        <v>792.4472761107891</v>
       </c>
       <c r="P27" t="n">
         <v>11.05459461714213</v>
       </c>
       <c r="Q27" t="n">
-        <v>397.0390799650133</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>51.09445101400182</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>86.21183045618777</v>
+        <v>86.21183045618778</v>
       </c>
       <c r="K28" t="n">
-        <v>241.1425456023712</v>
+        <v>241.1425456023713</v>
       </c>
       <c r="L28" t="n">
         <v>356.8682741197791</v>
       </c>
       <c r="M28" t="n">
-        <v>388.8493522313194</v>
+        <v>388.8493522313192</v>
       </c>
       <c r="N28" t="n">
         <v>379.2701675762117</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>26.62931155667423</v>
       </c>
       <c r="K29" t="n">
         <v>624.9125822714782</v>
@@ -36838,7 +36838,7 @@
         <v>820.6703788463088</v>
       </c>
       <c r="M29" t="n">
-        <v>896.4098389189587</v>
+        <v>18.95942154094966</v>
       </c>
       <c r="N29" t="n">
         <v>874.8548683192082</v>
@@ -36847,13 +36847,13 @@
         <v>757.8414321747051</v>
       </c>
       <c r="P29" t="n">
-        <v>250.1692872839906</v>
+        <v>626.4290713963708</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>393.4386735615085</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>81.12264814744668</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>18.15119664795522</v>
+        <v>18.15119664795523</v>
       </c>
       <c r="M30" t="n">
-        <v>29.10030914927315</v>
+        <v>29.10030914927317</v>
       </c>
       <c r="N30" t="n">
-        <v>35.76495338913323</v>
+        <v>571.1214696208795</v>
       </c>
       <c r="O30" t="n">
-        <v>136.9527487881895</v>
+        <v>792.4472761107891</v>
       </c>
       <c r="P30" t="n">
         <v>632.6939190022995</v>
       </c>
       <c r="Q30" t="n">
-        <v>397.0390799650133</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>51.09445101400182</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>86.21183045618778</v>
+        <v>86.2118304561877</v>
       </c>
       <c r="K31" t="n">
-        <v>241.1425456023713</v>
+        <v>241.1425456023712</v>
       </c>
       <c r="L31" t="n">
         <v>356.8682741197791</v>
@@ -36999,16 +36999,16 @@
         <v>388.8493522313192</v>
       </c>
       <c r="N31" t="n">
-        <v>379.2701675762117</v>
+        <v>379.2701675762116</v>
       </c>
       <c r="O31" t="n">
-        <v>354.42726745953</v>
+        <v>354.4272674595299</v>
       </c>
       <c r="P31" t="n">
-        <v>294.1480404722304</v>
+        <v>294.1480404722303</v>
       </c>
       <c r="Q31" t="n">
-        <v>141.9151792318733</v>
+        <v>141.9151792318732</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>311.0099669750084</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>624.9125822714782</v>
       </c>
       <c r="L32" t="n">
-        <v>820.6703788463088</v>
+        <v>5.395688043829722</v>
       </c>
       <c r="M32" t="n">
         <v>896.4098389189587</v>
@@ -37084,10 +37084,10 @@
         <v>757.8414321747051</v>
       </c>
       <c r="P32" t="n">
-        <v>170.6332290189517</v>
+        <v>626.4290713963708</v>
       </c>
       <c r="Q32" t="n">
-        <v>393.4386735615085</v>
+        <v>128.0049397150907</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>18.15119664795523</v>
+        <v>742.0315506803075</v>
       </c>
       <c r="M33" t="n">
         <v>29.10030914927317</v>
       </c>
       <c r="N33" t="n">
-        <v>35.76495338913325</v>
+        <v>616.0603628167032</v>
       </c>
       <c r="O33" t="n">
-        <v>136.9527487881895</v>
+        <v>23.62802888261299</v>
       </c>
       <c r="P33" t="n">
         <v>632.6939190022995</v>
       </c>
       <c r="Q33" t="n">
-        <v>397.0390799650133</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>51.09445101400182</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>86.2118304561878</v>
+        <v>86.21183045618776</v>
       </c>
       <c r="K34" t="n">
         <v>241.1425456023713</v>
       </c>
       <c r="L34" t="n">
-        <v>356.8682741197792</v>
+        <v>356.8682741197791</v>
       </c>
       <c r="M34" t="n">
-        <v>388.8493522313194</v>
+        <v>388.8493522313193</v>
       </c>
       <c r="N34" t="n">
         <v>379.2701675762117</v>
@@ -37242,7 +37242,7 @@
         <v>354.42726745953</v>
       </c>
       <c r="P34" t="n">
-        <v>294.1480404722304</v>
+        <v>294.1480404722303</v>
       </c>
       <c r="Q34" t="n">
         <v>141.9151792318733</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>624.9125822714782</v>
+        <v>260.8002882592747</v>
       </c>
       <c r="L35" t="n">
         <v>820.6703788463088</v>
@@ -37321,13 +37321,13 @@
         <v>757.8414321747051</v>
       </c>
       <c r="P35" t="n">
-        <v>110.4490276967506</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>393.4386735615085</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.12264814744668</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>515.6419734409868</v>
       </c>
       <c r="L36" t="n">
-        <v>18.15119664795523</v>
+        <v>742.0315506803075</v>
       </c>
       <c r="M36" t="n">
         <v>29.10030914927317</v>
@@ -37397,10 +37397,10 @@
         <v>35.76495338913325</v>
       </c>
       <c r="O36" t="n">
-        <v>136.9527487881895</v>
+        <v>261.787258275338</v>
       </c>
       <c r="P36" t="n">
-        <v>632.6939190022995</v>
+        <v>11.05459461714213</v>
       </c>
       <c r="Q36" t="n">
         <v>397.0390799650133</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>95.34115221761802</v>
+        <v>95.341152217618</v>
       </c>
       <c r="K37" t="n">
-        <v>250.2718673638015</v>
+        <v>210.7310918743701</v>
       </c>
       <c r="L37" t="n">
         <v>365.9975958812094</v>
@@ -37473,7 +37473,7 @@
         <v>397.9786739927496</v>
       </c>
       <c r="N37" t="n">
-        <v>348.8587138482097</v>
+        <v>327.556575283731</v>
       </c>
       <c r="O37" t="n">
         <v>302.7136751670493</v>
@@ -37482,7 +37482,7 @@
         <v>242.4344481797497</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.20158693939258</v>
+        <v>151.0445009933035</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>624.9125822714782</v>
       </c>
       <c r="L38" t="n">
-        <v>820.6703788463088</v>
+        <v>262.4410002876033</v>
       </c>
       <c r="M38" t="n">
-        <v>448.5597029875678</v>
+        <v>896.4098389189587</v>
       </c>
       <c r="N38" t="n">
-        <v>21.15367186701521</v>
+        <v>874.8548683192082</v>
       </c>
       <c r="O38" t="n">
-        <v>757.8414321747051</v>
+        <v>14.51947834982614</v>
       </c>
       <c r="P38" t="n">
         <v>626.4290713963708</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>18.15119664795523</v>
+        <v>727.0135062858436</v>
       </c>
       <c r="M39" t="n">
         <v>29.10030914927317</v>
@@ -37634,10 +37634,10 @@
         <v>35.76495338913325</v>
       </c>
       <c r="O39" t="n">
-        <v>136.9527487881895</v>
+        <v>792.4472761107891</v>
       </c>
       <c r="P39" t="n">
-        <v>632.6939190022995</v>
+        <v>11.05459461714213</v>
       </c>
       <c r="Q39" t="n">
         <v>397.0390799650133</v>
@@ -37704,7 +37704,7 @@
         <v>189.4289533098906</v>
       </c>
       <c r="L40" t="n">
-        <v>365.9975958812094</v>
+        <v>326.4568203917782</v>
       </c>
       <c r="M40" t="n">
         <v>397.9786739927496</v>
@@ -37713,7 +37713,7 @@
         <v>327.556575283731</v>
       </c>
       <c r="O40" t="n">
-        <v>324.0158137315286</v>
+        <v>363.5565892209602</v>
       </c>
       <c r="P40" t="n">
         <v>303.2773622336606</v>
@@ -37780,13 +37780,13 @@
         <v>311.0099669750084</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>624.9125822714782</v>
       </c>
       <c r="L41" t="n">
-        <v>820.6703788463088</v>
+        <v>5.395688043829722</v>
       </c>
       <c r="M41" t="n">
-        <v>300.8937369543007</v>
+        <v>410.1331973378532</v>
       </c>
       <c r="N41" t="n">
         <v>874.8548683192082</v>
@@ -37801,7 +37801,7 @@
         <v>393.4386735615085</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.12264814744668</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>18.15119664795523</v>
       </c>
       <c r="M42" t="n">
-        <v>29.10030914927317</v>
+        <v>938.156593589273</v>
       </c>
       <c r="N42" t="n">
-        <v>35.76495338913325</v>
+        <v>283.7045095660366</v>
       </c>
       <c r="O42" t="n">
-        <v>136.9527487881895</v>
+        <v>792.4472761107891</v>
       </c>
       <c r="P42" t="n">
-        <v>632.6939190022995</v>
+        <v>11.05459461714213</v>
       </c>
       <c r="Q42" t="n">
-        <v>397.0390799650133</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>51.09445101400182</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>95.34115221761802</v>
+        <v>34.49823816370709</v>
       </c>
       <c r="K43" t="n">
         <v>250.2718673638015</v>
       </c>
       <c r="L43" t="n">
-        <v>365.9975958812094</v>
+        <v>326.4568203917771</v>
       </c>
       <c r="M43" t="n">
         <v>397.9786739927496</v>
       </c>
       <c r="N43" t="n">
-        <v>348.8587138482102</v>
+        <v>388.399489337642</v>
       </c>
       <c r="O43" t="n">
         <v>302.7136751670493</v>
       </c>
       <c r="P43" t="n">
-        <v>242.4344481797497</v>
+        <v>303.2773622336607</v>
       </c>
       <c r="Q43" t="n">
         <v>90.20158693939258</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>311.0099669750084</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>624.9125822714782</v>
       </c>
       <c r="L44" t="n">
-        <v>820.6703788463088</v>
+        <v>5.395688043829722</v>
       </c>
       <c r="M44" t="n">
-        <v>18.95942154094966</v>
+        <v>896.4098389189587</v>
       </c>
       <c r="N44" t="n">
-        <v>531.8766014610811</v>
+        <v>874.8548683192082</v>
       </c>
       <c r="O44" t="n">
-        <v>757.8414321747051</v>
+        <v>582.574757568608</v>
       </c>
       <c r="P44" t="n">
         <v>626.4290713963708</v>
@@ -38038,7 +38038,7 @@
         <v>393.4386735615085</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.12264814744668</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>227.0755391343438</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>515.6419734409868</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>742.0315506803075</v>
+        <v>18.15119664795523</v>
       </c>
       <c r="M45" t="n">
-        <v>40.1839994076548</v>
+        <v>938.156593589273</v>
       </c>
       <c r="N45" t="n">
-        <v>35.76495338913325</v>
+        <v>430.8844324090555</v>
       </c>
       <c r="O45" t="n">
         <v>23.62802888261299</v>
       </c>
       <c r="P45" t="n">
-        <v>11.05459461714213</v>
+        <v>632.6939190022995</v>
       </c>
       <c r="Q45" t="n">
-        <v>397.0390799650133</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>51.09445101400182</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>95.34115221761802</v>
+        <v>34.49823816370709</v>
       </c>
       <c r="K46" t="n">
-        <v>250.2718673638015</v>
+        <v>210.7310918743681</v>
       </c>
       <c r="L46" t="n">
-        <v>326.456820391778</v>
+        <v>305.1546818272985</v>
       </c>
       <c r="M46" t="n">
-        <v>397.9786739927496</v>
+        <v>337.1357599388386</v>
       </c>
       <c r="N46" t="n">
-        <v>327.556575283731</v>
+        <v>388.3994893376421</v>
       </c>
       <c r="O46" t="n">
-        <v>363.5565892209602</v>
+        <v>363.5565892209603</v>
       </c>
       <c r="P46" t="n">
-        <v>242.4344481797497</v>
+        <v>303.2773622336607</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.20158693939258</v>
+        <v>151.0445009933036</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
